--- a/hfren_forces_TinaSRP.xlsx
+++ b/hfren_forces_TinaSRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jojo\PhD\ClimbingRobot\ClimbingLizardForceAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1B8B02-3473-4B09-812D-DBD49962661B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D7AFF-9C2A-436A-8A29-5571786A8F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{361A1D49-73B3-4AC6-8EE4-2F2FF516DA3C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Gecko_forces_sync_output!$A$1:$P$168</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Gecko_forces_sync_output!$A$1:$P$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="139">
   <si>
     <t>filename</t>
   </si>
@@ -105,234 +105,6 @@
     <t xml:space="preserve"> fore</t>
   </si>
   <si>
-    <t>Gecko 14 run 1 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 2 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 3 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 4 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 5 2018-09-12_000001.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 6 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 7 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 8 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 9 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 10 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 11 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 12 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 13 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 14 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 15 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 16 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 17 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 18 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 19 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 20 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 21 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 22 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 23 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko 14 run 24 2018-09-12_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run1_2018-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run2_2018-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run3_2018-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run4_2018-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run5_2018-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_ run8_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_ run9_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_ run10_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_ run11_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_ run12_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_ run13_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run14_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run15_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run16_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run17_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_16_run18_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run2_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run3_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run4_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run5_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run6_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run7_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run8_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run9_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run10_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run11_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run12_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run13_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run15_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run16_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run17_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run18_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run19_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko17_run20_2018-09-19_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run1_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run2_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run3_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run4_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run5_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run8_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run9_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run10_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run11_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run12_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run13_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run14_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run15_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run16_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko18_ run17_18-09-17_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_18_run_20_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_18_run_21_2018-09-18_000000.avi</t>
-  </si>
-  <si>
-    <t>Gecko_18_run_22_2018-09-18_000000.avi</t>
-  </si>
-  <si>
     <t>foot2</t>
   </si>
   <si>
@@ -469,6 +241,228 @@
   </si>
   <si>
     <t>Gecko_13_run_21.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_01.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_02.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_03.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_04.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_05.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_06.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_07.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_08.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_09.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_10.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_11.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_12.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_13.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_14.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_15.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_16.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_17.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_18.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_19.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_20.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_21.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_22.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_23.avi</t>
+  </si>
+  <si>
+    <t>Gecko_14_run_24.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_01.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_02.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_03.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_04.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_05.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_08.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_10.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_11.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_12.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_13.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_14.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_15.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_16.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_17.avi</t>
+  </si>
+  <si>
+    <t>Gecko_16_run_18.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_02.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_03.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_04.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_05.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_06.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_08.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_09.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_10.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_11.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_12.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_13.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_15.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_16.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_17.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_18.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_19.avi</t>
+  </si>
+  <si>
+    <t>Gecko_17_run_20.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_01.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_02.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_03.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_04.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_05.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_08.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_09.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_10.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_11.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_12.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_13.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_14.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_15.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_16.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_17.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_20.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_21.avi</t>
+  </si>
+  <si>
+    <t>Gecko_18_run_22.avi</t>
   </si>
 </sst>
 </file>
@@ -563,13 +557,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7F932A5-CC43-4E04-AC27-40612C8C27EF}" name="Gecko_forces_sync_output" displayName="Gecko_forces_sync_output" ref="A1:P168" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:P168" xr:uid="{8FDBC8DA-A0A0-47B9-A188-B0492835F0ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7F932A5-CC43-4E04-AC27-40612C8C27EF}" name="Gecko_forces_sync_output" displayName="Gecko_forces_sync_output" ref="A1:P162" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:P162" xr:uid="{8FDBC8DA-A0A0-47B9-A188-B0492835F0ED}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{A1BFB48A-4736-4979-B00C-443A7BB7B89F}" uniqueName="1" name="filename" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A9C3EEDA-BB8A-482A-A745-C130734D0DFF}" uniqueName="2" name=" foot" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{1559F4BA-6C68-4499-8AF4-833E76D14F7D}" uniqueName="16" name="foot2" queryTableFieldId="16" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{341030FD-F509-4943-9757-02C520FD4FA1}" uniqueName="3" name=" direction" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{1559F4BA-6C68-4499-8AF4-833E76D14F7D}" uniqueName="16" name="foot2" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{341030FD-F509-4943-9757-02C520FD4FA1}" uniqueName="3" name=" direction" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{73AB809C-6697-4EEC-A20E-44523E24E1FC}" uniqueName="4" name=" MeanX" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{D1B41714-1FDF-488F-BD76-22DACBA0B2AF}" uniqueName="5" name=" MeanY" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{D04233DA-8767-41D8-802C-4449D92B3E73}" uniqueName="6" name=" MeanZ" queryTableFieldId="6"/>
@@ -884,15 +878,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0491D62-2885-4565-B9F2-4633DDFF3C53}">
-  <dimension ref="A1:P168"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -913,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -957,13 +951,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1007,13 +1001,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1057,13 +1051,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -1107,13 +1101,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1157,13 +1151,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1207,13 +1201,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -1257,13 +1251,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1307,13 +1301,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -1357,13 +1351,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1407,13 +1401,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -1457,13 +1451,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -1507,13 +1501,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1557,13 +1551,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1607,13 +1601,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -1657,13 +1651,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1707,13 +1701,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -1757,13 +1751,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -1807,13 +1801,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
@@ -1857,13 +1851,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
@@ -1907,13 +1901,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
@@ -1957,13 +1951,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
@@ -2007,13 +2001,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
@@ -2057,13 +2051,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
@@ -2107,13 +2101,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
@@ -2157,13 +2151,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -2207,13 +2201,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -2257,13 +2251,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
@@ -2307,13 +2301,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>17</v>
@@ -2357,13 +2351,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>16</v>
@@ -2407,13 +2401,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
@@ -2457,13 +2451,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -2507,13 +2501,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -2557,13 +2551,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
@@ -2607,13 +2601,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
@@ -2657,13 +2651,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -2707,13 +2701,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -2757,13 +2751,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>16</v>
@@ -2807,13 +2801,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>16</v>
@@ -2857,13 +2851,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>17</v>
@@ -2907,13 +2901,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>16</v>
@@ -2957,13 +2951,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
@@ -3007,13 +3001,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -3057,13 +3051,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -3107,13 +3101,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
@@ -3157,13 +3151,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -3207,13 +3201,13 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
@@ -3257,13 +3251,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -3307,13 +3301,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>16</v>
@@ -3357,13 +3351,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>17</v>
@@ -3407,13 +3401,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
@@ -3457,13 +3451,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -3507,13 +3501,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>16</v>
@@ -3557,13 +3551,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>17</v>
@@ -3607,13 +3601,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
@@ -3657,12 +3651,14 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
       </c>
@@ -3705,12 +3701,14 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3753,12 +3751,14 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>16</v>
       </c>
@@ -3801,12 +3801,14 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>16</v>
       </c>
@@ -3849,12 +3851,14 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>16</v>
       </c>
@@ -3897,12 +3901,14 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
       </c>
@@ -3945,12 +3951,14 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
@@ -3993,12 +4001,14 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
       </c>
@@ -4041,12 +4051,14 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>16</v>
       </c>
@@ -4089,12 +4101,14 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>17</v>
       </c>
@@ -4137,12 +4151,14 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
@@ -4185,12 +4201,14 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>16</v>
       </c>
@@ -4233,12 +4251,14 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>16</v>
       </c>
@@ -4281,12 +4301,14 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
@@ -4329,12 +4351,14 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>16</v>
       </c>
@@ -4377,12 +4401,14 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
       </c>
@@ -4425,12 +4451,14 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>17</v>
       </c>
@@ -4473,12 +4501,14 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>16</v>
       </c>
@@ -4521,12 +4551,14 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>17</v>
       </c>
@@ -4569,12 +4601,14 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>16</v>
       </c>
@@ -4617,12 +4651,14 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>16</v>
       </c>
@@ -4665,12 +4701,14 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>17</v>
       </c>
@@ -4713,12 +4751,14 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>17</v>
       </c>
@@ -4761,12 +4801,14 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>17</v>
       </c>
@@ -4809,12 +4851,14 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>16</v>
       </c>
@@ -4857,12 +4901,14 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>16</v>
       </c>
@@ -4905,12 +4951,14 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>16</v>
       </c>
@@ -4953,12 +5001,14 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>16</v>
       </c>
@@ -5001,12 +5051,14 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>17</v>
       </c>
@@ -5049,12 +5101,14 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>17</v>
       </c>
@@ -5097,12 +5151,14 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>17</v>
       </c>
@@ -5145,12 +5201,14 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>16</v>
       </c>
@@ -5193,12 +5251,14 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>16</v>
       </c>
@@ -5241,12 +5301,14 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>16</v>
       </c>
@@ -5289,12 +5351,14 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>16</v>
       </c>
@@ -5337,12 +5401,14 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>17</v>
       </c>
@@ -5385,12 +5451,14 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>16</v>
       </c>
@@ -5433,12 +5501,14 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>16</v>
       </c>
@@ -5481,12 +5551,14 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>16</v>
       </c>
@@ -5529,3553 +5601,3401 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D95" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>5.6010000000000001E-3</v>
+        <v>-6.4850000000000003E-3</v>
       </c>
       <c r="F95">
-        <v>8.8409999999999999E-3</v>
+        <v>1.0761E-2</v>
       </c>
       <c r="G95">
-        <v>-2.1489999999999999E-3</v>
+        <v>8.9099999999999997E-4</v>
       </c>
       <c r="H95">
-        <v>1.45E-4</v>
+        <v>-3.6699999999999998E-4</v>
       </c>
       <c r="I95">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="J95">
+        <v>5.1E-5</v>
+      </c>
+      <c r="K95">
+        <v>-1.3556E-2</v>
+      </c>
+      <c r="L95">
+        <v>-1.3975E-2</v>
+      </c>
+      <c r="M95">
+        <v>-1.1925E-2</v>
+      </c>
+      <c r="N95">
         <v>2.2800000000000001E-4</v>
       </c>
-      <c r="J95">
-        <v>-5.5999999999999999E-5</v>
-      </c>
-      <c r="K95">
-        <v>-2.1459999999999999E-3</v>
-      </c>
-      <c r="L95">
-        <v>1.304E-3</v>
-      </c>
-      <c r="M95">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="N95">
-        <v>2.1807E-2</v>
-      </c>
       <c r="O95">
-        <v>4.1453999999999998E-2</v>
+        <v>2.3792000000000001E-2</v>
       </c>
       <c r="P95">
-        <v>3.8049999999999998E-3</v>
+        <v>5.855E-3</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E96">
-        <v>2.809E-2</v>
+        <v>1.324E-2</v>
       </c>
       <c r="F96">
-        <v>4.4191000000000001E-2</v>
+        <v>2.5052000000000001E-2</v>
       </c>
       <c r="G96">
-        <v>4.1100000000000002E-4</v>
+        <v>-5.2099999999999998E-4</v>
       </c>
       <c r="H96">
-        <v>7.9799999999999999E-4</v>
+        <v>7.4799999999999997E-4</v>
       </c>
       <c r="I96">
-        <v>1.255E-3</v>
+        <v>1.4159999999999999E-3</v>
       </c>
       <c r="J96">
-        <v>1.2E-5</v>
+        <v>-2.9E-5</v>
       </c>
       <c r="K96">
-        <v>-4.64E-4</v>
+        <v>-2.9329999999999998E-3</v>
       </c>
       <c r="L96">
-        <v>-6.1590000000000004E-3</v>
+        <v>-1.864E-3</v>
       </c>
       <c r="M96">
-        <v>-3.6410000000000001E-3</v>
+        <v>-3.1449999999999998E-3</v>
       </c>
       <c r="N96">
-        <v>6.4217999999999997E-2</v>
+        <v>2.9555999999999999E-2</v>
       </c>
       <c r="O96">
-        <v>7.6201000000000005E-2</v>
+        <v>5.3834E-2</v>
       </c>
       <c r="P96">
-        <v>5.8250000000000003E-3</v>
+        <v>3.5300000000000002E-3</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E97">
-        <v>-6.4850000000000003E-3</v>
+        <v>1.4186000000000001E-2</v>
       </c>
       <c r="F97">
-        <v>1.0761E-2</v>
+        <v>2.9019E-2</v>
       </c>
       <c r="G97">
-        <v>8.9099999999999997E-4</v>
+        <v>-1.8489999999999999E-3</v>
       </c>
       <c r="H97">
-        <v>-3.6699999999999998E-4</v>
+        <v>8.2299999999999995E-4</v>
       </c>
       <c r="I97">
-        <v>6.0899999999999995E-4</v>
+        <v>1.683E-3</v>
       </c>
       <c r="J97">
-        <v>5.1E-5</v>
+        <v>-1.07E-4</v>
       </c>
       <c r="K97">
-        <v>-1.3556E-2</v>
+        <v>-4.6550000000000003E-3</v>
       </c>
       <c r="L97">
-        <v>-1.3975E-2</v>
+        <v>-2.5439999999999998E-3</v>
       </c>
       <c r="M97">
-        <v>-1.1925E-2</v>
+        <v>-5.2300000000000003E-3</v>
       </c>
       <c r="N97">
-        <v>2.2800000000000001E-4</v>
+        <v>2.6630999999999998E-2</v>
       </c>
       <c r="O97">
-        <v>2.3792000000000001E-2</v>
+        <v>5.2342E-2</v>
       </c>
       <c r="P97">
-        <v>5.855E-3</v>
+        <v>9.2400000000000002E-4</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E98">
-        <v>1.324E-2</v>
+        <v>7.4070000000000004E-3</v>
       </c>
       <c r="F98">
-        <v>2.5052000000000001E-2</v>
+        <v>2.8716999999999999E-2</v>
       </c>
       <c r="G98">
-        <v>-5.2099999999999998E-4</v>
+        <v>-1.735E-3</v>
       </c>
       <c r="H98">
-        <v>7.4799999999999997E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="I98">
-        <v>1.4159999999999999E-3</v>
+        <v>1.3159999999999999E-3</v>
       </c>
       <c r="J98">
-        <v>-2.9E-5</v>
+        <v>-7.8999999999999996E-5</v>
       </c>
       <c r="K98">
-        <v>-2.9329999999999998E-3</v>
+        <v>-9.0419999999999997E-3</v>
       </c>
       <c r="L98">
-        <v>-1.864E-3</v>
+        <v>-5.3020000000000003E-3</v>
       </c>
       <c r="M98">
-        <v>-3.1449999999999998E-3</v>
+        <v>-6.9509999999999997E-3</v>
       </c>
       <c r="N98">
-        <v>2.9555999999999999E-2</v>
+        <v>2.6596999999999999E-2</v>
       </c>
       <c r="O98">
-        <v>5.3834E-2</v>
+        <v>5.6792000000000002E-2</v>
       </c>
       <c r="P98">
-        <v>3.5300000000000002E-3</v>
+        <v>3.4480000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E99">
-        <v>1.4186000000000001E-2</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="F99">
-        <v>2.9019E-2</v>
+        <v>1.7385000000000001E-2</v>
       </c>
       <c r="G99">
-        <v>-1.8489999999999999E-3</v>
+        <v>2.5400000000000002E-3</v>
       </c>
       <c r="H99">
-        <v>8.2299999999999995E-4</v>
+        <v>-2.2900000000000001E-4</v>
       </c>
       <c r="I99">
-        <v>1.683E-3</v>
+        <v>1.137E-3</v>
       </c>
       <c r="J99">
-        <v>-1.07E-4</v>
+        <v>1.66E-4</v>
       </c>
       <c r="K99">
-        <v>-4.6550000000000003E-3</v>
+        <v>-1.4258E-2</v>
       </c>
       <c r="L99">
-        <v>-2.5439999999999998E-3</v>
+        <v>-2.5539999999999998E-3</v>
       </c>
       <c r="M99">
-        <v>-5.2300000000000003E-3</v>
+        <v>-5.6639999999999998E-3</v>
       </c>
       <c r="N99">
-        <v>2.6630999999999998E-2</v>
+        <v>4.6759999999999996E-3</v>
       </c>
       <c r="O99">
-        <v>5.2342E-2</v>
+        <v>2.9086000000000001E-2</v>
       </c>
       <c r="P99">
-        <v>9.2400000000000002E-4</v>
+        <v>5.8939999999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100">
-        <v>7.4070000000000004E-3</v>
+        <v>5.2882999999999999E-2</v>
       </c>
       <c r="F100">
-        <v>2.8716999999999999E-2</v>
+        <v>5.5975999999999998E-2</v>
       </c>
       <c r="G100">
-        <v>-1.735E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="H100">
-        <v>3.4000000000000002E-4</v>
+        <v>1.3060000000000001E-3</v>
       </c>
       <c r="I100">
-        <v>1.3159999999999999E-3</v>
+        <v>1.3829999999999999E-3</v>
       </c>
       <c r="J100">
-        <v>-7.8999999999999996E-5</v>
+        <v>9.3999999999999994E-5</v>
       </c>
       <c r="K100">
-        <v>-9.0419999999999997E-3</v>
+        <v>6.0099999999999997E-4</v>
       </c>
       <c r="L100">
-        <v>-5.3020000000000003E-3</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="M100">
-        <v>-6.9509999999999997E-3</v>
+        <v>-2.3709999999999998E-3</v>
       </c>
       <c r="N100">
-        <v>2.6596999999999999E-2</v>
+        <v>0.12767999999999999</v>
       </c>
       <c r="O100">
-        <v>5.6792000000000002E-2</v>
+        <v>0.12300999999999999</v>
       </c>
       <c r="P100">
-        <v>3.4480000000000001E-3</v>
+        <v>1.3616E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E101">
-        <v>-3.5000000000000001E-3</v>
+        <v>-1.2119E-2</v>
       </c>
       <c r="F101">
-        <v>1.7385000000000001E-2</v>
+        <v>1.1849999999999999E-2</v>
       </c>
       <c r="G101">
-        <v>2.5400000000000002E-3</v>
+        <v>2.362E-3</v>
       </c>
       <c r="H101">
-        <v>-2.2900000000000001E-4</v>
+        <v>-5.0500000000000002E-4</v>
       </c>
       <c r="I101">
-        <v>1.137E-3</v>
+        <v>4.9399999999999997E-4</v>
       </c>
       <c r="J101">
-        <v>1.66E-4</v>
+        <v>9.7999999999999997E-5</v>
       </c>
       <c r="K101">
-        <v>-1.4258E-2</v>
+        <v>-2.1856E-2</v>
       </c>
       <c r="L101">
-        <v>-2.5539999999999998E-3</v>
+        <v>-1.7222999999999999E-2</v>
       </c>
       <c r="M101">
-        <v>-5.6639999999999998E-3</v>
+        <v>-9.273E-3</v>
       </c>
       <c r="N101">
-        <v>4.6759999999999996E-3</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="O101">
-        <v>2.9086000000000001E-2</v>
+        <v>2.3193999999999999E-2</v>
       </c>
       <c r="P101">
-        <v>5.8939999999999999E-3</v>
+        <v>6.9890000000000004E-3</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E102">
-        <v>5.2882999999999999E-2</v>
+        <v>1.0062E-2</v>
       </c>
       <c r="F102">
-        <v>5.5975999999999998E-2</v>
+        <v>2.1377E-2</v>
       </c>
       <c r="G102">
-        <v>3.8E-3</v>
+        <v>-1.1069999999999999E-3</v>
       </c>
       <c r="H102">
-        <v>1.3060000000000001E-3</v>
+        <v>5.4500000000000002E-4</v>
       </c>
       <c r="I102">
-        <v>1.3829999999999999E-3</v>
+        <v>1.1590000000000001E-3</v>
       </c>
       <c r="J102">
-        <v>9.3999999999999994E-5</v>
+        <v>-6.0000000000000002E-5</v>
       </c>
       <c r="K102">
-        <v>6.0099999999999997E-4</v>
+        <v>-9.1929999999999998E-3</v>
       </c>
       <c r="L102">
-        <v>1.1800000000000001E-3</v>
+        <v>-8.9499999999999996E-3</v>
       </c>
       <c r="M102">
-        <v>-2.3709999999999998E-3</v>
+        <v>-7.3940000000000004E-3</v>
       </c>
       <c r="N102">
-        <v>0.12767999999999999</v>
+        <v>3.1529000000000001E-2</v>
       </c>
       <c r="O102">
-        <v>0.12300999999999999</v>
+        <v>4.8656999999999999E-2</v>
       </c>
       <c r="P102">
-        <v>1.3616E-2</v>
+        <v>3.0769999999999999E-3</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E103">
-        <v>-1.2119E-2</v>
+        <v>-8.3499999999999998E-3</v>
       </c>
       <c r="F103">
-        <v>1.1849999999999999E-2</v>
+        <v>8.9219999999999994E-3</v>
       </c>
       <c r="G103">
-        <v>2.362E-3</v>
+        <v>2.7690000000000002E-3</v>
       </c>
       <c r="H103">
-        <v>-5.0500000000000002E-4</v>
+        <v>-3.8900000000000002E-4</v>
       </c>
       <c r="I103">
-        <v>4.9399999999999997E-4</v>
+        <v>4.1599999999999997E-4</v>
       </c>
       <c r="J103">
-        <v>9.7999999999999997E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="K103">
-        <v>-2.1856E-2</v>
+        <v>-1.3971000000000001E-2</v>
       </c>
       <c r="L103">
-        <v>-1.7222999999999999E-2</v>
+        <v>-1.3537E-2</v>
       </c>
       <c r="M103">
-        <v>-9.273E-3</v>
+        <v>-1.2171E-2</v>
       </c>
       <c r="N103">
-        <v>4.2499999999999998E-4</v>
+        <v>1.97E-3</v>
       </c>
       <c r="O103">
-        <v>2.3193999999999999E-2</v>
+        <v>1.9005999999999999E-2</v>
       </c>
       <c r="P103">
-        <v>6.9890000000000004E-3</v>
+        <v>6.8409999999999999E-3</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E104">
-        <v>1.0062E-2</v>
+        <v>5.9670000000000001E-3</v>
       </c>
       <c r="F104">
-        <v>2.1377E-2</v>
+        <v>2.8951000000000001E-2</v>
       </c>
       <c r="G104">
-        <v>-1.1069999999999999E-3</v>
+        <v>-1.1800000000000001E-3</v>
       </c>
       <c r="H104">
-        <v>5.4500000000000002E-4</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="I104">
-        <v>1.1590000000000001E-3</v>
+        <v>1.3810000000000001E-3</v>
       </c>
       <c r="J104">
-        <v>-6.0000000000000002E-5</v>
+        <v>-5.5999999999999999E-5</v>
       </c>
       <c r="K104">
-        <v>-9.1929999999999998E-3</v>
+        <v>-8.8830000000000003E-3</v>
       </c>
       <c r="L104">
-        <v>-8.9499999999999996E-3</v>
+        <v>-3.8189999999999999E-3</v>
       </c>
       <c r="M104">
-        <v>-7.3940000000000004E-3</v>
+        <v>-9.2320000000000006E-3</v>
       </c>
       <c r="N104">
-        <v>3.1529000000000001E-2</v>
+        <v>2.6422000000000001E-2</v>
       </c>
       <c r="O104">
-        <v>4.8656999999999999E-2</v>
+        <v>5.4393999999999998E-2</v>
       </c>
       <c r="P104">
-        <v>3.0769999999999999E-3</v>
+        <v>4.6119999999999998E-3</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E105">
-        <v>-8.3499999999999998E-3</v>
+        <v>-8.2939999999999993E-3</v>
       </c>
       <c r="F105">
-        <v>8.9219999999999994E-3</v>
+        <v>1.3695000000000001E-2</v>
       </c>
       <c r="G105">
-        <v>2.7690000000000002E-3</v>
+        <v>2.8900000000000002E-3</v>
       </c>
       <c r="H105">
-        <v>-3.8900000000000002E-4</v>
+        <v>-3.9199999999999999E-4</v>
       </c>
       <c r="I105">
-        <v>4.1599999999999997E-4</v>
+        <v>6.4800000000000003E-4</v>
       </c>
       <c r="J105">
-        <v>1.2899999999999999E-4</v>
+        <v>1.37E-4</v>
       </c>
       <c r="K105">
-        <v>-1.3971000000000001E-2</v>
+        <v>-1.3937E-2</v>
       </c>
       <c r="L105">
-        <v>-1.3537E-2</v>
+        <v>-1.1971000000000001E-2</v>
       </c>
       <c r="M105">
-        <v>-1.2171E-2</v>
+        <v>-8.4469999999999996E-3</v>
       </c>
       <c r="N105">
-        <v>1.97E-3</v>
+        <v>2.9500000000000001E-4</v>
       </c>
       <c r="O105">
-        <v>1.9005999999999999E-2</v>
+        <v>2.4025999999999999E-2</v>
       </c>
       <c r="P105">
-        <v>6.8409999999999999E-3</v>
+        <v>6.2490000000000002E-3</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E106">
-        <v>5.9670000000000001E-3</v>
+        <v>1.0015E-2</v>
       </c>
       <c r="F106">
-        <v>2.8951000000000001E-2</v>
+        <v>3.2785000000000002E-2</v>
       </c>
       <c r="G106">
-        <v>-1.1800000000000001E-3</v>
+        <v>-1.7309999999999999E-3</v>
       </c>
       <c r="H106">
-        <v>2.8499999999999999E-4</v>
+        <v>5.1900000000000004E-4</v>
       </c>
       <c r="I106">
-        <v>1.3810000000000001E-3</v>
+        <v>1.699E-3</v>
       </c>
       <c r="J106">
-        <v>-5.5999999999999999E-5</v>
+        <v>-8.8999999999999995E-5</v>
       </c>
       <c r="K106">
-        <v>-8.8830000000000003E-3</v>
+        <v>-5.9940000000000002E-3</v>
       </c>
       <c r="L106">
-        <v>-3.8189999999999999E-3</v>
+        <v>-5.8979999999999996E-3</v>
       </c>
       <c r="M106">
-        <v>-9.2320000000000006E-3</v>
+        <v>-8.1860000000000006E-3</v>
       </c>
       <c r="N106">
-        <v>2.6422000000000001E-2</v>
+        <v>3.0862000000000001E-2</v>
       </c>
       <c r="O106">
-        <v>5.4393999999999998E-2</v>
+        <v>6.7344000000000001E-2</v>
       </c>
       <c r="P106">
-        <v>4.6119999999999998E-3</v>
+        <v>4.6360000000000004E-3</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>-8.2939999999999993E-3</v>
+        <v>1.3953E-2</v>
       </c>
       <c r="F107">
-        <v>1.3695000000000001E-2</v>
+        <v>9.2809999999999993E-3</v>
       </c>
       <c r="G107">
-        <v>2.8900000000000002E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="H107">
-        <v>-3.9199999999999999E-4</v>
+        <v>3.9800000000000002E-4</v>
       </c>
       <c r="I107">
-        <v>6.4800000000000003E-4</v>
+        <v>2.6499999999999999E-4</v>
       </c>
       <c r="J107">
-        <v>1.37E-4</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="K107">
-        <v>-1.3937E-2</v>
+        <v>-7.1599999999999995E-4</v>
       </c>
       <c r="L107">
-        <v>-1.1971000000000001E-2</v>
+        <v>-1.2229999999999999E-3</v>
       </c>
       <c r="M107">
-        <v>-8.4469999999999996E-3</v>
+        <v>-1.2330000000000001E-2</v>
       </c>
       <c r="N107">
-        <v>2.9500000000000001E-4</v>
+        <v>3.1465E-2</v>
       </c>
       <c r="O107">
-        <v>2.4025999999999999E-2</v>
+        <v>1.8546E-2</v>
       </c>
       <c r="P107">
-        <v>6.2490000000000002E-3</v>
+        <v>6.4419999999999998E-3</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108">
-        <v>1.0015E-2</v>
+        <v>3.8122000000000003E-2</v>
       </c>
       <c r="F108">
-        <v>3.2785000000000002E-2</v>
+        <v>4.5779E-2</v>
       </c>
       <c r="G108">
-        <v>-1.7309999999999999E-3</v>
+        <v>5.2430000000000003E-3</v>
       </c>
       <c r="H108">
-        <v>5.1900000000000004E-4</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="I108">
-        <v>1.699E-3</v>
+        <v>1.652E-3</v>
       </c>
       <c r="J108">
-        <v>-8.8999999999999995E-5</v>
+        <v>1.8900000000000001E-4</v>
       </c>
       <c r="K108">
-        <v>-5.9940000000000002E-3</v>
+        <v>-4.3300000000000001E-4</v>
       </c>
       <c r="L108">
-        <v>-5.8979999999999996E-3</v>
+        <v>-1.353E-3</v>
       </c>
       <c r="M108">
-        <v>-8.1860000000000006E-3</v>
+        <v>-2.297E-3</v>
       </c>
       <c r="N108">
-        <v>3.0862000000000001E-2</v>
+        <v>8.4499000000000005E-2</v>
       </c>
       <c r="O108">
-        <v>6.7344000000000001E-2</v>
+        <v>9.3091999999999994E-2</v>
       </c>
       <c r="P108">
-        <v>4.6360000000000004E-3</v>
+        <v>1.3452E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D109" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>1.3953E-2</v>
+        <v>-5.8950000000000001E-3</v>
       </c>
       <c r="F109">
-        <v>9.2809999999999993E-3</v>
+        <v>1.5226999999999999E-2</v>
       </c>
       <c r="G109">
-        <v>8.5999999999999998E-4</v>
+        <v>3.6189999999999998E-3</v>
       </c>
       <c r="H109">
-        <v>3.9800000000000002E-4</v>
+        <v>-2.3499999999999999E-4</v>
       </c>
       <c r="I109">
-        <v>2.6499999999999999E-4</v>
+        <v>6.0599999999999998E-4</v>
       </c>
       <c r="J109">
-        <v>2.5000000000000001E-5</v>
+        <v>1.44E-4</v>
       </c>
       <c r="K109">
-        <v>-7.1599999999999995E-4</v>
+        <v>-1.2315E-2</v>
       </c>
       <c r="L109">
-        <v>-1.2229999999999999E-3</v>
+        <v>2.5399999999999999E-4</v>
       </c>
       <c r="M109">
-        <v>-1.2330000000000001E-2</v>
+        <v>-2.908E-3</v>
       </c>
       <c r="N109">
-        <v>3.1465E-2</v>
+        <v>2.9E-5</v>
       </c>
       <c r="O109">
-        <v>1.8546E-2</v>
+        <v>2.7300999999999999E-2</v>
       </c>
       <c r="P109">
-        <v>6.4419999999999998E-3</v>
+        <v>6.5440000000000003E-3</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E110">
-        <v>3.8122000000000003E-2</v>
+        <v>2.0560000000000001E-3</v>
       </c>
       <c r="F110">
-        <v>4.5779E-2</v>
+        <v>3.3700000000000002E-3</v>
       </c>
       <c r="G110">
-        <v>5.2430000000000003E-3</v>
+        <v>-4.1899999999999999E-4</v>
       </c>
       <c r="H110">
-        <v>1.3749999999999999E-3</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I110">
-        <v>1.652E-3</v>
+        <v>7.1000000000000005E-5</v>
       </c>
       <c r="J110">
-        <v>1.8900000000000001E-4</v>
+        <v>-9.0000000000000002E-6</v>
       </c>
       <c r="K110">
-        <v>-4.3300000000000001E-4</v>
+        <v>-3.261E-3</v>
       </c>
       <c r="L110">
-        <v>-1.353E-3</v>
+        <v>-1.9100000000000001E-4</v>
       </c>
       <c r="M110">
-        <v>-2.297E-3</v>
+        <v>-6.038E-3</v>
       </c>
       <c r="N110">
-        <v>8.4499000000000005E-2</v>
+        <v>1.2489E-2</v>
       </c>
       <c r="O110">
-        <v>9.3091999999999994E-2</v>
+        <v>1.4848E-2</v>
       </c>
       <c r="P110">
-        <v>1.3452E-2</v>
+        <v>2.8969999999999998E-3</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111">
-        <v>-5.8950000000000001E-3</v>
+        <v>2.5041000000000001E-2</v>
       </c>
       <c r="F111">
-        <v>1.5226999999999999E-2</v>
+        <v>2.7073E-2</v>
       </c>
       <c r="G111">
-        <v>3.6189999999999998E-3</v>
+        <v>3.5119999999999999E-3</v>
       </c>
       <c r="H111">
-        <v>-2.3499999999999999E-4</v>
+        <v>6.0099999999999997E-4</v>
       </c>
       <c r="I111">
-        <v>6.0599999999999998E-4</v>
+        <v>6.4900000000000005E-4</v>
       </c>
       <c r="J111">
-        <v>1.44E-4</v>
+        <v>8.3999999999999995E-5</v>
       </c>
       <c r="K111">
-        <v>-1.2315E-2</v>
+        <v>3.2369999999999999E-3</v>
       </c>
       <c r="L111">
-        <v>2.5399999999999999E-4</v>
+        <v>2.1419999999999998E-3</v>
       </c>
       <c r="M111">
-        <v>-2.908E-3</v>
+        <v>-1.9070000000000001E-3</v>
       </c>
       <c r="N111">
-        <v>2.9E-5</v>
+        <v>5.0209999999999998E-2</v>
       </c>
       <c r="O111">
-        <v>2.7300999999999999E-2</v>
+        <v>5.425E-2</v>
       </c>
       <c r="P111">
-        <v>6.5440000000000003E-3</v>
+        <v>9.6159999999999995E-3</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E112">
-        <v>2.0560000000000001E-3</v>
+        <v>5.6639999999999998E-3</v>
       </c>
       <c r="F112">
-        <v>3.3700000000000002E-3</v>
+        <v>7.5100000000000002E-3</v>
       </c>
       <c r="G112">
-        <v>-4.1899999999999999E-4</v>
+        <v>-7.8200000000000003E-4</v>
       </c>
       <c r="H112">
-        <v>4.3000000000000002E-5</v>
+        <v>1.8100000000000001E-4</v>
       </c>
       <c r="I112">
-        <v>7.1000000000000005E-5</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="J112">
-        <v>-9.0000000000000002E-6</v>
+        <v>-2.5000000000000001E-5</v>
       </c>
       <c r="K112">
-        <v>-3.261E-3</v>
+        <v>-5.2220000000000001E-3</v>
       </c>
       <c r="L112">
-        <v>-1.9100000000000001E-4</v>
+        <v>-8.2600000000000002E-4</v>
       </c>
       <c r="M112">
-        <v>-6.038E-3</v>
+        <v>-1.027E-2</v>
       </c>
       <c r="N112">
-        <v>1.2489E-2</v>
+        <v>2.2336999999999999E-2</v>
       </c>
       <c r="O112">
-        <v>1.4848E-2</v>
+        <v>2.2103999999999999E-2</v>
       </c>
       <c r="P112">
-        <v>2.8969999999999998E-3</v>
+        <v>3.271E-3</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>2.5041000000000001E-2</v>
+        <v>-1.9430000000000001E-3</v>
       </c>
       <c r="F113">
-        <v>2.7073E-2</v>
+        <v>1.5966999999999999E-2</v>
       </c>
       <c r="G113">
-        <v>3.5119999999999999E-3</v>
+        <v>3.5590000000000001E-3</v>
       </c>
       <c r="H113">
-        <v>6.0099999999999997E-4</v>
+        <v>-1.12E-4</v>
       </c>
       <c r="I113">
-        <v>6.4900000000000005E-4</v>
+        <v>9.19E-4</v>
       </c>
       <c r="J113">
-        <v>8.3999999999999995E-5</v>
+        <v>2.05E-4</v>
       </c>
       <c r="K113">
-        <v>3.2369999999999999E-3</v>
+        <v>-6.7809999999999997E-3</v>
       </c>
       <c r="L113">
-        <v>2.1419999999999998E-3</v>
+        <v>-1.0120000000000001E-3</v>
       </c>
       <c r="M113">
-        <v>-1.9070000000000001E-3</v>
+        <v>-5.5500000000000005E-4</v>
       </c>
       <c r="N113">
-        <v>5.0209999999999998E-2</v>
+        <v>3.4759999999999999E-3</v>
       </c>
       <c r="O113">
-        <v>5.425E-2</v>
+        <v>2.8104000000000001E-2</v>
       </c>
       <c r="P113">
-        <v>9.6159999999999995E-3</v>
+        <v>7.6990000000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E114">
-        <v>5.6639999999999998E-3</v>
+        <v>-3.258E-3</v>
       </c>
       <c r="F114">
-        <v>7.5100000000000002E-3</v>
+        <v>4.1869999999999997E-3</v>
       </c>
       <c r="G114">
-        <v>-7.8200000000000003E-4</v>
+        <v>-2.333E-3</v>
       </c>
       <c r="H114">
-        <v>1.8100000000000001E-4</v>
+        <v>-1.37E-4</v>
       </c>
       <c r="I114">
-        <v>2.4000000000000001E-4</v>
+        <v>1.76E-4</v>
       </c>
       <c r="J114">
-        <v>-2.5000000000000001E-5</v>
+        <v>-9.7999999999999997E-5</v>
       </c>
       <c r="K114">
-        <v>-5.2220000000000001E-3</v>
+        <v>-8.3920000000000002E-3</v>
       </c>
       <c r="L114">
-        <v>-8.2600000000000002E-4</v>
+        <v>-5.0500000000000002E-4</v>
       </c>
       <c r="M114">
-        <v>-1.027E-2</v>
+        <v>-8.1860000000000006E-3</v>
       </c>
       <c r="N114">
-        <v>2.2336999999999999E-2</v>
+        <v>1.604E-3</v>
       </c>
       <c r="O114">
-        <v>2.2103999999999999E-2</v>
+        <v>8.4679999999999998E-3</v>
       </c>
       <c r="P114">
-        <v>3.271E-3</v>
+        <v>7.4100000000000001E-4</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115">
-        <v>-1.9430000000000001E-3</v>
+        <v>-4.8770000000000003E-3</v>
       </c>
       <c r="F115">
-        <v>1.5966999999999999E-2</v>
+        <v>1.6292000000000001E-2</v>
       </c>
       <c r="G115">
-        <v>3.5590000000000001E-3</v>
+        <v>2.8600000000000001E-3</v>
       </c>
       <c r="H115">
-        <v>-1.12E-4</v>
+        <v>-3.0299999999999999E-4</v>
       </c>
       <c r="I115">
-        <v>9.19E-4</v>
+        <v>1.0120000000000001E-3</v>
       </c>
       <c r="J115">
-        <v>2.05E-4</v>
+        <v>1.7799999999999999E-4</v>
       </c>
       <c r="K115">
-        <v>-6.7809999999999997E-3</v>
+        <v>-1.2019E-2</v>
       </c>
       <c r="L115">
-        <v>-1.0120000000000001E-3</v>
+        <v>-1.3029999999999999E-3</v>
       </c>
       <c r="M115">
-        <v>-5.5500000000000005E-4</v>
+        <v>-1.176E-3</v>
       </c>
       <c r="N115">
-        <v>3.4759999999999999E-3</v>
+        <v>8.5599999999999999E-4</v>
       </c>
       <c r="O115">
-        <v>2.8104000000000001E-2</v>
+        <v>3.1521E-2</v>
       </c>
       <c r="P115">
-        <v>7.6990000000000001E-3</v>
+        <v>6.2090000000000001E-3</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E116">
-        <v>-3.258E-3</v>
+        <v>5.3509999999999999E-3</v>
       </c>
       <c r="F116">
-        <v>4.1869999999999997E-3</v>
+        <v>6.9829999999999996E-3</v>
       </c>
       <c r="G116">
-        <v>-2.333E-3</v>
+        <v>-2.166E-3</v>
       </c>
       <c r="H116">
-        <v>-1.37E-4</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="I116">
-        <v>1.76E-4</v>
+        <v>1.8200000000000001E-4</v>
       </c>
       <c r="J116">
-        <v>-9.7999999999999997E-5</v>
+        <v>-5.7000000000000003E-5</v>
       </c>
       <c r="K116">
-        <v>-8.3920000000000002E-3</v>
+        <v>-1.552E-3</v>
       </c>
       <c r="L116">
-        <v>-5.0500000000000002E-4</v>
+        <v>1.2880000000000001E-3</v>
       </c>
       <c r="M116">
-        <v>-8.1860000000000006E-3</v>
+        <v>-6.7359999999999998E-3</v>
       </c>
       <c r="N116">
-        <v>1.604E-3</v>
+        <v>1.5412E-2</v>
       </c>
       <c r="O116">
-        <v>8.4679999999999998E-3</v>
+        <v>1.5363999999999999E-2</v>
       </c>
       <c r="P116">
-        <v>7.4100000000000001E-4</v>
+        <v>1.4159999999999999E-3</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E117">
-        <v>-4.8770000000000003E-3</v>
+        <v>-7.0190000000000001E-3</v>
       </c>
       <c r="F117">
-        <v>1.6292000000000001E-2</v>
+        <v>2.2345E-2</v>
       </c>
       <c r="G117">
-        <v>2.8600000000000001E-3</v>
+        <v>4.5129999999999997E-3</v>
       </c>
       <c r="H117">
-        <v>-3.0299999999999999E-4</v>
+        <v>-2.2499999999999999E-4</v>
       </c>
       <c r="I117">
-        <v>1.0120000000000001E-3</v>
+        <v>7.1699999999999997E-4</v>
       </c>
       <c r="J117">
-        <v>1.7799999999999999E-4</v>
+        <v>1.45E-4</v>
       </c>
       <c r="K117">
-        <v>-1.2019E-2</v>
+        <v>-1.5952999999999998E-2</v>
       </c>
       <c r="L117">
-        <v>-1.3029999999999999E-3</v>
+        <v>1.951E-3</v>
       </c>
       <c r="M117">
-        <v>-1.176E-3</v>
+        <v>-2.5929999999999998E-3</v>
       </c>
       <c r="N117">
-        <v>8.5599999999999999E-4</v>
+        <v>1.276E-3</v>
       </c>
       <c r="O117">
-        <v>3.1521E-2</v>
+        <v>3.6015999999999999E-2</v>
       </c>
       <c r="P117">
-        <v>6.2090000000000001E-3</v>
+        <v>8.2760000000000004E-3</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E118">
-        <v>1.4527999999999999E-2</v>
+        <v>5.4209999999999996E-3</v>
       </c>
       <c r="F118">
-        <v>1.9335999999999999E-2</v>
+        <v>1.4007E-2</v>
       </c>
       <c r="G118">
-        <v>3.7799999999999999E-3</v>
+        <v>-7.7000000000000001E-5</v>
       </c>
       <c r="H118">
-        <v>8.3500000000000002E-4</v>
+        <v>3.6900000000000002E-4</v>
       </c>
       <c r="I118">
-        <v>1.111E-3</v>
+        <v>9.5399999999999999E-4</v>
       </c>
       <c r="J118">
-        <v>2.1699999999999999E-4</v>
+        <v>-5.0000000000000004E-6</v>
       </c>
       <c r="K118">
-        <v>4.73E-4</v>
+        <v>-8.7089999999999997E-3</v>
       </c>
       <c r="L118">
-        <v>3.9389999999999998E-3</v>
+        <v>-2.12E-4</v>
       </c>
       <c r="M118">
-        <v>5.1699999999999999E-4</v>
+        <v>-4.3959999999999997E-3</v>
       </c>
       <c r="N118">
-        <v>3.1697999999999997E-2</v>
+        <v>1.8216E-2</v>
       </c>
       <c r="O118">
-        <v>3.3258000000000003E-2</v>
+        <v>2.4081000000000002E-2</v>
       </c>
       <c r="P118">
-        <v>7.3140000000000002E-3</v>
+        <v>4.2940000000000001E-3</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D119" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E119">
-        <v>5.3509999999999999E-3</v>
+        <v>1.0494E-2</v>
       </c>
       <c r="F119">
-        <v>6.9829999999999996E-3</v>
+        <v>1.3598000000000001E-2</v>
       </c>
       <c r="G119">
-        <v>-2.166E-3</v>
+        <v>-2.101E-3</v>
       </c>
       <c r="H119">
-        <v>1.3999999999999999E-4</v>
+        <v>8.43E-4</v>
       </c>
       <c r="I119">
-        <v>1.8200000000000001E-4</v>
+        <v>1.0920000000000001E-3</v>
       </c>
       <c r="J119">
-        <v>-5.7000000000000003E-5</v>
+        <v>-1.6899999999999999E-4</v>
       </c>
       <c r="K119">
-        <v>-1.552E-3</v>
+        <v>-2.7099999999999997E-4</v>
       </c>
       <c r="L119">
-        <v>1.2880000000000001E-3</v>
+        <v>-2.1549999999999998E-3</v>
       </c>
       <c r="M119">
-        <v>-6.7359999999999998E-3</v>
+        <v>-5.836E-3</v>
       </c>
       <c r="N119">
-        <v>1.5412E-2</v>
+        <v>1.8748999999999998E-2</v>
       </c>
       <c r="O119">
-        <v>1.5363999999999999E-2</v>
+        <v>2.8590999999999998E-2</v>
       </c>
       <c r="P119">
-        <v>1.4159999999999999E-3</v>
+        <v>6.9499999999999998E-4</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E120">
-        <v>-7.0190000000000001E-3</v>
+        <v>7.2099999999999996E-4</v>
       </c>
       <c r="F120">
-        <v>2.2345E-2</v>
+        <v>6.2779999999999997E-3</v>
       </c>
       <c r="G120">
-        <v>4.5129999999999997E-3</v>
+        <v>-2.1559999999999999E-3</v>
       </c>
       <c r="H120">
-        <v>-2.2499999999999999E-4</v>
+        <v>2.3E-5</v>
       </c>
       <c r="I120">
-        <v>7.1699999999999997E-4</v>
+        <v>1.9799999999999999E-4</v>
       </c>
       <c r="J120">
-        <v>1.45E-4</v>
+        <v>-6.7999999999999999E-5</v>
       </c>
       <c r="K120">
-        <v>-1.5952999999999998E-2</v>
+        <v>-4.8269999999999997E-3</v>
       </c>
       <c r="L120">
-        <v>1.951E-3</v>
+        <v>5.7200000000000003E-4</v>
       </c>
       <c r="M120">
-        <v>-2.5929999999999998E-3</v>
+        <v>-4.6519999999999999E-3</v>
       </c>
       <c r="N120">
-        <v>1.276E-3</v>
+        <v>6.6930000000000002E-3</v>
       </c>
       <c r="O120">
-        <v>3.6015999999999999E-2</v>
+        <v>9.7020000000000006E-3</v>
       </c>
       <c r="P120">
-        <v>8.2760000000000004E-3</v>
+        <v>8.8199999999999997E-4</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="1"/>
+      <c r="C121" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D121" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>5.4209999999999996E-3</v>
+        <v>-8.6650000000000008E-3</v>
       </c>
       <c r="F121">
-        <v>1.4007E-2</v>
+        <v>1.5494000000000001E-2</v>
       </c>
       <c r="G121">
-        <v>-7.7000000000000001E-5</v>
+        <v>2.3739999999999998E-3</v>
       </c>
       <c r="H121">
-        <v>3.6900000000000002E-4</v>
+        <v>-2.9399999999999999E-4</v>
       </c>
       <c r="I121">
-        <v>9.5399999999999999E-4</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="J121">
-        <v>-5.0000000000000004E-6</v>
+        <v>8.1000000000000004E-5</v>
       </c>
       <c r="K121">
-        <v>-8.7089999999999997E-3</v>
+        <v>-1.4441000000000001E-2</v>
       </c>
       <c r="L121">
-        <v>-2.12E-4</v>
+        <v>-1.0319999999999999E-3</v>
       </c>
       <c r="M121">
-        <v>-4.3959999999999997E-3</v>
+        <v>-8.2299999999999995E-4</v>
       </c>
       <c r="N121">
-        <v>1.8216E-2</v>
+        <v>-9.1600000000000004E-4</v>
       </c>
       <c r="O121">
-        <v>2.4081000000000002E-2</v>
+        <v>2.5963E-2</v>
       </c>
       <c r="P121">
-        <v>4.2940000000000001E-3</v>
+        <v>5.2700000000000004E-3</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E122">
-        <v>1.0494E-2</v>
+        <v>-1.0522E-2</v>
       </c>
       <c r="F122">
-        <v>1.3598000000000001E-2</v>
+        <v>6.4879999999999998E-3</v>
       </c>
       <c r="G122">
-        <v>-2.101E-3</v>
+        <v>4.8199999999999996E-3</v>
       </c>
       <c r="H122">
-        <v>8.43E-4</v>
+        <v>-3.5399999999999999E-4</v>
       </c>
       <c r="I122">
-        <v>1.0920000000000001E-3</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="J122">
-        <v>-1.6899999999999999E-4</v>
+        <v>1.6200000000000001E-4</v>
       </c>
       <c r="K122">
-        <v>-2.7099999999999997E-4</v>
+        <v>-2.3005000000000001E-2</v>
       </c>
       <c r="L122">
-        <v>-2.1549999999999998E-3</v>
+        <v>-2.604E-3</v>
       </c>
       <c r="M122">
-        <v>-5.836E-3</v>
+        <v>-8.0409999999999995E-3</v>
       </c>
       <c r="N122">
-        <v>1.8748999999999998E-2</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="O122">
-        <v>2.8590999999999998E-2</v>
+        <v>1.5616E-2</v>
       </c>
       <c r="P122">
-        <v>6.9499999999999998E-4</v>
+        <v>1.0761E-2</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D123" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E123">
-        <v>7.2099999999999996E-4</v>
+        <v>1.0708000000000001E-2</v>
       </c>
       <c r="F123">
-        <v>6.2779999999999997E-3</v>
+        <v>1.495E-2</v>
       </c>
       <c r="G123">
-        <v>-2.1559999999999999E-3</v>
+        <v>4.0130000000000001E-3</v>
       </c>
       <c r="H123">
-        <v>2.3E-5</v>
+        <v>3.8699999999999997E-4</v>
       </c>
       <c r="I123">
-        <v>1.9799999999999999E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="J123">
-        <v>-6.7999999999999999E-5</v>
+        <v>1.45E-4</v>
       </c>
       <c r="K123">
-        <v>-4.8269999999999997E-3</v>
+        <v>-2.2420000000000001E-3</v>
       </c>
       <c r="L123">
-        <v>5.7200000000000003E-4</v>
+        <v>-1.738E-3</v>
       </c>
       <c r="M123">
-        <v>-4.6519999999999999E-3</v>
+        <v>-2.2279999999999999E-3</v>
       </c>
       <c r="N123">
-        <v>6.6930000000000002E-3</v>
+        <v>2.094E-2</v>
       </c>
       <c r="O123">
-        <v>9.7020000000000006E-3</v>
+        <v>2.8871000000000001E-2</v>
       </c>
       <c r="P123">
-        <v>8.8199999999999997E-4</v>
+        <v>7.7390000000000002E-3</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="1"/>
+      <c r="C124" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D124" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E124">
-        <v>-8.6650000000000008E-3</v>
+        <v>1.6459999999999999E-2</v>
       </c>
       <c r="F124">
-        <v>1.5494000000000001E-2</v>
+        <v>2.052E-2</v>
       </c>
       <c r="G124">
-        <v>2.3739999999999998E-3</v>
+        <v>-2.5860000000000002E-3</v>
       </c>
       <c r="H124">
-        <v>-2.9399999999999999E-4</v>
+        <v>6.4400000000000004E-4</v>
       </c>
       <c r="I124">
-        <v>5.2700000000000002E-4</v>
+        <v>8.03E-4</v>
       </c>
       <c r="J124">
-        <v>8.1000000000000004E-5</v>
+        <v>-1.01E-4</v>
       </c>
       <c r="K124">
-        <v>-1.4441000000000001E-2</v>
+        <v>-5.8809999999999999E-3</v>
       </c>
       <c r="L124">
-        <v>-1.0319999999999999E-3</v>
+        <v>-8.1779999999999995E-3</v>
       </c>
       <c r="M124">
-        <v>-8.2299999999999995E-4</v>
+        <v>-5.7650000000000002E-3</v>
       </c>
       <c r="N124">
-        <v>-9.1600000000000004E-4</v>
+        <v>3.2048E-2</v>
       </c>
       <c r="O124">
-        <v>2.5963E-2</v>
+        <v>3.7968000000000002E-2</v>
       </c>
       <c r="P124">
-        <v>5.2700000000000004E-3</v>
+        <v>-1.8799999999999999E-4</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D125" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>-1.0522E-2</v>
+        <v>2.1048999999999998E-2</v>
       </c>
       <c r="F125">
-        <v>6.4879999999999998E-3</v>
+        <v>2.1871000000000002E-2</v>
       </c>
       <c r="G125">
-        <v>4.8199999999999996E-3</v>
+        <v>3.088E-3</v>
       </c>
       <c r="H125">
-        <v>-3.5399999999999999E-4</v>
+        <v>6.6500000000000001E-4</v>
       </c>
       <c r="I125">
-        <v>2.1800000000000001E-4</v>
+        <v>6.9099999999999999E-4</v>
       </c>
       <c r="J125">
-        <v>1.6200000000000001E-4</v>
+        <v>9.7999999999999997E-5</v>
       </c>
       <c r="K125">
-        <v>-2.3005000000000001E-2</v>
+        <v>-6.1399999999999996E-4</v>
       </c>
       <c r="L125">
-        <v>-2.604E-3</v>
+        <v>-1.1659999999999999E-3</v>
       </c>
       <c r="M125">
-        <v>-8.0409999999999995E-3</v>
+        <v>-1.678E-3</v>
       </c>
       <c r="N125">
-        <v>2.4199999999999998E-3</v>
+        <v>3.6511000000000002E-2</v>
       </c>
       <c r="O125">
-        <v>1.5616E-2</v>
+        <v>3.8322000000000002E-2</v>
       </c>
       <c r="P125">
-        <v>1.0761E-2</v>
+        <v>7.0679999999999996E-3</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>1.0708000000000001E-2</v>
+        <v>4.9109999999999996E-3</v>
       </c>
       <c r="F126">
-        <v>1.495E-2</v>
+        <v>8.9160000000000003E-3</v>
       </c>
       <c r="G126">
-        <v>4.0130000000000001E-3</v>
+        <v>-1.4170000000000001E-3</v>
       </c>
       <c r="H126">
-        <v>3.8699999999999997E-4</v>
+        <v>9.7999999999999997E-5</v>
       </c>
       <c r="I126">
-        <v>5.4000000000000001E-4</v>
+        <v>1.7799999999999999E-4</v>
       </c>
       <c r="J126">
-        <v>1.45E-4</v>
+        <v>-2.8E-5</v>
       </c>
       <c r="K126">
-        <v>-2.2420000000000001E-3</v>
+        <v>-1.0872E-2</v>
       </c>
       <c r="L126">
-        <v>-1.738E-3</v>
+        <v>-1.2639999999999999E-3</v>
       </c>
       <c r="M126">
-        <v>-2.2279999999999999E-3</v>
+        <v>-1.2605E-2</v>
       </c>
       <c r="N126">
-        <v>2.094E-2</v>
+        <v>1.9910000000000001E-2</v>
       </c>
       <c r="O126">
-        <v>2.8871000000000001E-2</v>
+        <v>2.1749999999999999E-2</v>
       </c>
       <c r="P126">
-        <v>7.7390000000000002E-3</v>
+        <v>3.4580000000000001E-3</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D127" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E127">
-        <v>1.6459999999999999E-2</v>
+        <v>-8.4080000000000005E-3</v>
       </c>
       <c r="F127">
-        <v>2.052E-2</v>
+        <v>1.1114000000000001E-2</v>
       </c>
       <c r="G127">
-        <v>-2.5860000000000002E-3</v>
+        <v>-3.7980000000000002E-3</v>
       </c>
       <c r="H127">
-        <v>6.4400000000000004E-4</v>
+        <v>-3.5300000000000002E-4</v>
       </c>
       <c r="I127">
-        <v>8.03E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J127">
-        <v>-1.01E-4</v>
+        <v>-1.5899999999999999E-4</v>
       </c>
       <c r="K127">
-        <v>-5.8809999999999999E-3</v>
+        <v>-1.5723999999999998E-2</v>
       </c>
       <c r="L127">
-        <v>-8.1779999999999995E-3</v>
+        <v>-2.1749999999999999E-3</v>
       </c>
       <c r="M127">
-        <v>-5.7650000000000002E-3</v>
+        <v>-7.0200000000000002E-3</v>
       </c>
       <c r="N127">
-        <v>3.2048E-2</v>
+        <v>-2.41E-4</v>
       </c>
       <c r="O127">
-        <v>3.7968000000000002E-2</v>
+        <v>2.0871000000000001E-2</v>
       </c>
       <c r="P127">
-        <v>-1.8799999999999999E-4</v>
+        <v>8.2000000000000001E-5</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D128" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>2.1048999999999998E-2</v>
+        <v>-8.8020000000000008E-3</v>
       </c>
       <c r="F128">
-        <v>2.1871000000000002E-2</v>
+        <v>8.4609999999999998E-3</v>
       </c>
       <c r="G128">
-        <v>3.088E-3</v>
+        <v>3.7520000000000001E-3</v>
       </c>
       <c r="H128">
-        <v>6.6500000000000001E-4</v>
+        <v>-2.6899999999999998E-4</v>
       </c>
       <c r="I128">
-        <v>6.9099999999999999E-4</v>
+        <v>2.5900000000000001E-4</v>
       </c>
       <c r="J128">
-        <v>9.7999999999999997E-5</v>
+        <v>1.15E-4</v>
       </c>
       <c r="K128">
-        <v>-6.1399999999999996E-4</v>
+        <v>-1.7585E-2</v>
       </c>
       <c r="L128">
-        <v>-1.1659999999999999E-3</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="M128">
-        <v>-1.678E-3</v>
+        <v>-4.8260000000000004E-3</v>
       </c>
       <c r="N128">
-        <v>3.6511000000000002E-2</v>
+        <v>1.9919999999999998E-3</v>
       </c>
       <c r="O128">
-        <v>3.8322000000000002E-2</v>
+        <v>1.6997999999999999E-2</v>
       </c>
       <c r="P128">
-        <v>7.0679999999999996E-3</v>
+        <v>8.6379999999999998E-3</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D129" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E129">
-        <v>4.9109999999999996E-3</v>
+        <v>1.3594999999999999E-2</v>
       </c>
       <c r="F129">
-        <v>8.9160000000000003E-3</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="G129">
-        <v>-1.4170000000000001E-3</v>
+        <v>-3.751E-3</v>
       </c>
       <c r="H129">
-        <v>9.7999999999999997E-5</v>
+        <v>4.55E-4</v>
       </c>
       <c r="I129">
-        <v>1.7799999999999999E-4</v>
+        <v>4.37E-4</v>
       </c>
       <c r="J129">
-        <v>-2.8E-5</v>
+        <v>-1.26E-4</v>
       </c>
       <c r="K129">
-        <v>-1.0872E-2</v>
+        <v>2.13E-4</v>
       </c>
       <c r="L129">
-        <v>-1.2639999999999999E-3</v>
+        <v>-4.4700000000000002E-4</v>
       </c>
       <c r="M129">
-        <v>-1.2605E-2</v>
+        <v>-7.7879999999999998E-3</v>
       </c>
       <c r="N129">
-        <v>1.9910000000000001E-2</v>
+        <v>2.6716E-2</v>
       </c>
       <c r="O129">
-        <v>2.1749999999999999E-2</v>
+        <v>2.2242000000000001E-2</v>
       </c>
       <c r="P129">
-        <v>3.4580000000000001E-3</v>
+        <v>5.8799999999999998E-4</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E130">
-        <v>-8.7880000000000007E-3</v>
+        <v>-6.8979999999999996E-3</v>
       </c>
       <c r="F130">
-        <v>9.8890000000000002E-3</v>
+        <v>6.4120000000000002E-3</v>
       </c>
       <c r="G130">
-        <v>3.4499999999999999E-3</v>
+        <v>3.7109999999999999E-3</v>
       </c>
       <c r="H130">
-        <v>-3.4299999999999999E-4</v>
+        <v>-2.9599999999999998E-4</v>
       </c>
       <c r="I130">
-        <v>3.8699999999999997E-4</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="J130">
-        <v>1.35E-4</v>
+        <v>1.5899999999999999E-4</v>
       </c>
       <c r="K130">
-        <v>-1.4716999999999999E-2</v>
+        <v>-1.0446E-2</v>
       </c>
       <c r="L130">
-        <v>-4.535E-3</v>
+        <v>-2.222E-3</v>
       </c>
       <c r="M130">
-        <v>-3.6779999999999998E-3</v>
+        <v>-6.2220000000000001E-3</v>
       </c>
       <c r="N130">
-        <v>1.6540000000000001E-3</v>
+        <v>-4.8899999999999996E-4</v>
       </c>
       <c r="O130">
-        <v>2.2977000000000001E-2</v>
+        <v>1.1860000000000001E-2</v>
       </c>
       <c r="P130">
-        <v>6.4260000000000003E-3</v>
+        <v>8.3750000000000005E-3</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E131">
-        <v>-8.4080000000000005E-3</v>
+        <v>-3.8270000000000001E-3</v>
       </c>
       <c r="F131">
-        <v>1.1114000000000001E-2</v>
+        <v>1.0347E-2</v>
       </c>
       <c r="G131">
-        <v>-3.7980000000000002E-3</v>
+        <v>3.029E-3</v>
       </c>
       <c r="H131">
-        <v>-3.5300000000000002E-4</v>
+        <v>-1.9900000000000001E-4</v>
       </c>
       <c r="I131">
-        <v>4.6700000000000002E-4</v>
+        <v>5.3799999999999996E-4</v>
       </c>
       <c r="J131">
-        <v>-1.5899999999999999E-4</v>
+        <v>1.5699999999999999E-4</v>
       </c>
       <c r="K131">
-        <v>-1.5723999999999998E-2</v>
+        <v>-1.3214E-2</v>
       </c>
       <c r="L131">
-        <v>-2.1749999999999999E-3</v>
+        <v>-9.2299999999999999E-4</v>
       </c>
       <c r="M131">
-        <v>-7.0200000000000002E-3</v>
+        <v>-1.9009999999999999E-3</v>
       </c>
       <c r="N131">
-        <v>-2.41E-4</v>
+        <v>6.0720000000000001E-3</v>
       </c>
       <c r="O131">
-        <v>2.0871000000000001E-2</v>
+        <v>1.6330999999999998E-2</v>
       </c>
       <c r="P131">
-        <v>8.2000000000000001E-5</v>
+        <v>6.293E-3</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E132">
-        <v>-8.8020000000000008E-3</v>
+        <v>1.2942E-2</v>
       </c>
       <c r="F132">
-        <v>8.4609999999999998E-3</v>
+        <v>1.6753000000000001E-2</v>
       </c>
       <c r="G132">
-        <v>3.7520000000000001E-3</v>
+        <v>-3.5079999999999998E-3</v>
       </c>
       <c r="H132">
-        <v>-2.6899999999999998E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
       <c r="I132">
-        <v>2.5900000000000001E-4</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="J132">
-        <v>1.15E-4</v>
+        <v>-1.66E-4</v>
       </c>
       <c r="K132">
-        <v>-1.7585E-2</v>
+        <v>1.2520000000000001E-3</v>
       </c>
       <c r="L132">
-        <v>5.1000000000000004E-4</v>
+        <v>6.5899999999999997E-4</v>
       </c>
       <c r="M132">
-        <v>-4.8260000000000004E-3</v>
+        <v>-5.7559999999999998E-3</v>
       </c>
       <c r="N132">
-        <v>1.9919999999999998E-3</v>
+        <v>2.0344999999999999E-2</v>
       </c>
       <c r="O132">
-        <v>1.6997999999999999E-2</v>
+        <v>3.0655000000000002E-2</v>
       </c>
       <c r="P132">
-        <v>8.6379999999999998E-3</v>
+        <v>1.0839999999999999E-3</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D133" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>1.3594999999999999E-2</v>
+        <v>-9.7470000000000005E-3</v>
       </c>
       <c r="F133">
-        <v>1.3050000000000001E-2</v>
+        <v>9.0810000000000005E-3</v>
       </c>
       <c r="G133">
-        <v>-3.751E-3</v>
+        <v>-1.068E-2</v>
       </c>
       <c r="H133">
-        <v>4.55E-4</v>
+        <v>-1.76E-4</v>
       </c>
       <c r="I133">
-        <v>4.37E-4</v>
+        <v>1.64E-4</v>
       </c>
       <c r="J133">
-        <v>-1.26E-4</v>
+        <v>-1.93E-4</v>
       </c>
       <c r="K133">
-        <v>2.13E-4</v>
+        <v>-2.2530999999999999E-2</v>
       </c>
       <c r="L133">
-        <v>-4.4700000000000002E-4</v>
+        <v>-2.8699999999999998E-4</v>
       </c>
       <c r="M133">
-        <v>-7.7879999999999998E-3</v>
+        <v>-3.8100000000000002E-2</v>
       </c>
       <c r="N133">
-        <v>2.6716E-2</v>
+        <v>2.8110000000000001E-3</v>
       </c>
       <c r="O133">
-        <v>2.2242000000000001E-2</v>
+        <v>4.3028999999999998E-2</v>
       </c>
       <c r="P133">
-        <v>5.8799999999999998E-4</v>
+        <v>-1.9750000000000002E-3</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D134" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>-6.8979999999999996E-3</v>
+        <v>2.5433000000000001E-2</v>
       </c>
       <c r="F134">
-        <v>6.4120000000000002E-3</v>
+        <v>5.2519999999999997E-2</v>
       </c>
       <c r="G134">
-        <v>3.7109999999999999E-3</v>
+        <v>8.5280000000000009E-3</v>
       </c>
       <c r="H134">
-        <v>-2.9599999999999998E-4</v>
+        <v>5.9500000000000004E-4</v>
       </c>
       <c r="I134">
-        <v>2.7500000000000002E-4</v>
+        <v>1.2279999999999999E-3</v>
       </c>
       <c r="J134">
-        <v>1.5899999999999999E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K134">
-        <v>-1.0446E-2</v>
+        <v>-7.7099999999999998E-4</v>
       </c>
       <c r="L134">
-        <v>-2.222E-3</v>
+        <v>7.8899999999999999E-4</v>
       </c>
       <c r="M134">
-        <v>-6.2220000000000001E-3</v>
+        <v>-1.444E-3</v>
       </c>
       <c r="N134">
-        <v>-4.8899999999999996E-4</v>
+        <v>3.6916999999999998E-2</v>
       </c>
       <c r="O134">
-        <v>1.1860000000000001E-2</v>
+        <v>7.6642000000000002E-2</v>
       </c>
       <c r="P134">
-        <v>8.3750000000000005E-3</v>
+        <v>1.8600999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E135">
-        <v>-3.8270000000000001E-3</v>
+        <v>3.1364000000000003E-2</v>
       </c>
       <c r="F135">
-        <v>1.0347E-2</v>
+        <v>1.6896999999999999E-2</v>
       </c>
       <c r="G135">
-        <v>3.029E-3</v>
+        <v>5.6600000000000001E-3</v>
       </c>
       <c r="H135">
-        <v>-1.9900000000000001E-4</v>
+        <v>8.6200000000000003E-4</v>
       </c>
       <c r="I135">
-        <v>5.3799999999999996E-4</v>
+        <v>4.6500000000000003E-4</v>
       </c>
       <c r="J135">
-        <v>1.5699999999999999E-4</v>
+        <v>1.55E-4</v>
       </c>
       <c r="K135">
-        <v>-1.3214E-2</v>
+        <v>-5.156E-3</v>
       </c>
       <c r="L135">
-        <v>-9.2299999999999999E-4</v>
+        <v>-8.9379999999999998E-3</v>
       </c>
       <c r="M135">
-        <v>-1.9009999999999999E-3</v>
+        <v>-1.4015E-2</v>
       </c>
       <c r="N135">
-        <v>6.0720000000000001E-3</v>
+        <v>6.5339999999999995E-2</v>
       </c>
       <c r="O135">
-        <v>1.6330999999999998E-2</v>
+        <v>3.8542E-2</v>
       </c>
       <c r="P135">
-        <v>6.293E-3</v>
+        <v>1.5703999999999999E-2</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136">
-        <v>1.2942E-2</v>
+        <v>1.5410000000000001E-3</v>
       </c>
       <c r="F136">
-        <v>1.6753000000000001E-2</v>
+        <v>4.4180000000000001E-3</v>
       </c>
       <c r="G136">
-        <v>-3.5079999999999998E-3</v>
+        <v>-5.8719999999999996E-3</v>
       </c>
       <c r="H136">
-        <v>6.1200000000000002E-4</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="I136">
-        <v>7.9199999999999995E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="J136">
-        <v>-1.66E-4</v>
+        <v>-9.1000000000000003E-5</v>
       </c>
       <c r="K136">
-        <v>1.2520000000000001E-3</v>
+        <v>-1.0299000000000001E-2</v>
       </c>
       <c r="L136">
-        <v>6.5899999999999997E-4</v>
+        <v>-2.4840000000000001E-3</v>
       </c>
       <c r="M136">
-        <v>-5.7559999999999998E-3</v>
+        <v>-2.2841E-2</v>
       </c>
       <c r="N136">
-        <v>2.0344999999999999E-2</v>
+        <v>1.1046E-2</v>
       </c>
       <c r="O136">
-        <v>3.0655000000000002E-2</v>
+        <v>2.8386000000000002E-2</v>
       </c>
       <c r="P136">
-        <v>1.0839999999999999E-3</v>
+        <v>-3.6200000000000002E-4</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D137" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E137">
-        <v>-9.7470000000000005E-3</v>
+        <v>-1.9583E-2</v>
       </c>
       <c r="F137">
-        <v>9.0810000000000005E-3</v>
+        <v>5.9459999999999999E-2</v>
       </c>
       <c r="G137">
-        <v>-1.068E-2</v>
+        <v>6.1970000000000003E-3</v>
       </c>
       <c r="H137">
-        <v>-1.76E-4</v>
+        <v>-4.1100000000000002E-4</v>
       </c>
       <c r="I137">
-        <v>1.64E-4</v>
+        <v>1.248E-3</v>
       </c>
       <c r="J137">
-        <v>-1.93E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="K137">
-        <v>-2.2530999999999999E-2</v>
+        <v>-3.1329000000000003E-2</v>
       </c>
       <c r="L137">
-        <v>-2.8699999999999998E-4</v>
+        <v>6.3299999999999999E-4</v>
       </c>
       <c r="M137">
-        <v>-3.8100000000000002E-2</v>
+        <v>-3.6930000000000001E-3</v>
       </c>
       <c r="N137">
-        <v>2.8110000000000001E-3</v>
+        <v>-3.8370000000000001E-3</v>
       </c>
       <c r="O137">
-        <v>4.3028999999999998E-2</v>
+        <v>9.3112E-2</v>
       </c>
       <c r="P137">
-        <v>-1.9750000000000002E-3</v>
+        <v>1.4489999999999999E-2</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D138" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E138">
-        <v>2.5433000000000001E-2</v>
+        <v>-9.3000000000000005E-4</v>
       </c>
       <c r="F138">
-        <v>5.2519999999999997E-2</v>
+        <v>1.0198E-2</v>
       </c>
       <c r="G138">
-        <v>8.5280000000000009E-3</v>
+        <v>-7.2399999999999999E-3</v>
       </c>
       <c r="H138">
-        <v>5.9500000000000004E-4</v>
+        <v>-2.0000000000000002E-5</v>
       </c>
       <c r="I138">
-        <v>1.2279999999999999E-3</v>
+        <v>2.13E-4</v>
       </c>
       <c r="J138">
-        <v>2.0000000000000001E-4</v>
+        <v>-1.5100000000000001E-4</v>
       </c>
       <c r="K138">
-        <v>-7.7099999999999998E-4</v>
+        <v>-8.9210000000000001E-3</v>
       </c>
       <c r="L138">
-        <v>7.8899999999999999E-4</v>
+        <v>-3.3199999999999999E-4</v>
       </c>
       <c r="M138">
-        <v>-1.444E-3</v>
+        <v>-2.4580000000000001E-2</v>
       </c>
       <c r="N138">
-        <v>3.6916999999999998E-2</v>
+        <v>2.3654000000000001E-2</v>
       </c>
       <c r="O138">
-        <v>7.6642000000000002E-2</v>
+        <v>5.0328999999999999E-2</v>
       </c>
       <c r="P138">
-        <v>1.8600999999999999E-2</v>
+        <v>-3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D139" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139">
-        <v>3.1364000000000003E-2</v>
+        <v>2.8140999999999999E-2</v>
       </c>
       <c r="F139">
-        <v>1.6896999999999999E-2</v>
+        <v>3.8036E-2</v>
       </c>
       <c r="G139">
-        <v>5.6600000000000001E-3</v>
+        <v>5.5800000000000001E-4</v>
       </c>
       <c r="H139">
-        <v>8.6200000000000003E-4</v>
+        <v>7.5100000000000004E-4</v>
       </c>
       <c r="I139">
-        <v>4.6500000000000003E-4</v>
+        <v>1.0150000000000001E-3</v>
       </c>
       <c r="J139">
-        <v>1.55E-4</v>
+        <v>1.5E-5</v>
       </c>
       <c r="K139">
-        <v>-5.156E-3</v>
+        <v>-2.4819999999999998E-3</v>
       </c>
       <c r="L139">
-        <v>-8.9379999999999998E-3</v>
+        <v>2.61E-4</v>
       </c>
       <c r="M139">
-        <v>-1.4015E-2</v>
+        <v>-6.5059999999999996E-3</v>
       </c>
       <c r="N139">
-        <v>6.5339999999999995E-2</v>
+        <v>6.1038000000000002E-2</v>
       </c>
       <c r="O139">
-        <v>3.8542E-2</v>
+        <v>6.9597000000000006E-2</v>
       </c>
       <c r="P139">
-        <v>1.5703999999999999E-2</v>
+        <v>8.9289999999999994E-3</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D140" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E140">
-        <v>1.5410000000000001E-3</v>
+        <v>-8.1390000000000004E-3</v>
       </c>
       <c r="F140">
-        <v>4.4180000000000001E-3</v>
+        <v>1.3708E-2</v>
       </c>
       <c r="G140">
-        <v>-5.8719999999999996E-3</v>
+        <v>4.7580000000000001E-3</v>
       </c>
       <c r="H140">
-        <v>2.4000000000000001E-5</v>
+        <v>-3.6999999999999999E-4</v>
       </c>
       <c r="I140">
-        <v>6.8999999999999997E-5</v>
+        <v>6.2399999999999999E-4</v>
       </c>
       <c r="J140">
-        <v>-9.1000000000000003E-5</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="K140">
-        <v>-1.0299000000000001E-2</v>
+        <v>-1.83E-2</v>
       </c>
       <c r="L140">
-        <v>-2.4840000000000001E-3</v>
+        <v>-1.1112E-2</v>
       </c>
       <c r="M140">
-        <v>-2.2841E-2</v>
+        <v>-7.927E-3</v>
       </c>
       <c r="N140">
-        <v>1.1046E-2</v>
+        <v>2.8600000000000001E-3</v>
       </c>
       <c r="O140">
-        <v>2.8386000000000002E-2</v>
+        <v>3.7858000000000003E-2</v>
       </c>
       <c r="P140">
-        <v>-3.6200000000000002E-4</v>
+        <v>1.3252E-2</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D141" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>-1.9583E-2</v>
+        <v>1.5526999999999999E-2</v>
       </c>
       <c r="F141">
-        <v>5.9459999999999999E-2</v>
+        <v>2.2053E-2</v>
       </c>
       <c r="G141">
-        <v>6.1970000000000003E-3</v>
+        <v>-3.7950000000000002E-3</v>
       </c>
       <c r="H141">
-        <v>-4.1100000000000002E-4</v>
+        <v>8.0099999999999995E-4</v>
       </c>
       <c r="I141">
-        <v>1.248E-3</v>
+        <v>1.1379999999999999E-3</v>
       </c>
       <c r="J141">
-        <v>1.2999999999999999E-4</v>
+        <v>-1.95E-4</v>
       </c>
       <c r="K141">
-        <v>-3.1329000000000003E-2</v>
+        <v>-3.5179999999999999E-3</v>
       </c>
       <c r="L141">
-        <v>6.3299999999999999E-4</v>
+        <v>-6.5900000000000004E-3</v>
       </c>
       <c r="M141">
-        <v>-3.6930000000000001E-3</v>
+        <v>-6.8539999999999998E-3</v>
       </c>
       <c r="N141">
-        <v>-3.8370000000000001E-3</v>
+        <v>3.6850000000000001E-2</v>
       </c>
       <c r="O141">
-        <v>9.3112E-2</v>
+        <v>4.6151999999999999E-2</v>
       </c>
       <c r="P141">
-        <v>1.4489999999999999E-2</v>
+        <v>1.6699999999999999E-4</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D142" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E142">
-        <v>-9.3000000000000005E-4</v>
+        <v>2.7920000000000002E-3</v>
       </c>
       <c r="F142">
-        <v>1.0198E-2</v>
+        <v>8.2059999999999998E-3</v>
       </c>
       <c r="G142">
-        <v>-7.2399999999999999E-3</v>
+        <v>-3.405E-3</v>
       </c>
       <c r="H142">
-        <v>-2.0000000000000002E-5</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="I142">
-        <v>2.13E-4</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="J142">
-        <v>-1.5100000000000001E-4</v>
+        <v>-5.8999999999999998E-5</v>
       </c>
       <c r="K142">
-        <v>-8.9210000000000001E-3</v>
+        <v>-8.8690000000000001E-3</v>
       </c>
       <c r="L142">
-        <v>-3.3199999999999999E-4</v>
+        <v>-3.3379999999999998E-3</v>
       </c>
       <c r="M142">
-        <v>-2.4580000000000001E-2</v>
+        <v>-2.4163E-2</v>
       </c>
       <c r="N142">
-        <v>2.3654000000000001E-2</v>
+        <v>2.2811999999999999E-2</v>
       </c>
       <c r="O142">
-        <v>5.0328999999999999E-2</v>
+        <v>4.8364999999999998E-2</v>
       </c>
       <c r="P142">
-        <v>-3.8200000000000002E-4</v>
+        <v>2.189E-3</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E143">
-        <v>2.8140999999999999E-2</v>
+        <v>-1.5976000000000001E-2</v>
       </c>
       <c r="F143">
-        <v>3.8036E-2</v>
+        <v>4.1097000000000002E-2</v>
       </c>
       <c r="G143">
-        <v>5.5800000000000001E-4</v>
+        <v>2.7009999999999998E-3</v>
       </c>
       <c r="H143">
-        <v>7.5100000000000004E-4</v>
+        <v>-3.2600000000000001E-4</v>
       </c>
       <c r="I143">
-        <v>1.0150000000000001E-3</v>
+        <v>8.3799999999999999E-4</v>
       </c>
       <c r="J143">
-        <v>1.5E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="K143">
-        <v>-2.4819999999999998E-3</v>
+        <v>-3.7817999999999997E-2</v>
       </c>
       <c r="L143">
-        <v>2.61E-4</v>
+        <v>1.4239999999999999E-3</v>
       </c>
       <c r="M143">
-        <v>-6.5059999999999996E-3</v>
+        <v>-6.2129999999999998E-3</v>
       </c>
       <c r="N143">
-        <v>6.1038000000000002E-2</v>
+        <v>2.3310000000000002E-3</v>
       </c>
       <c r="O143">
-        <v>6.9597000000000006E-2</v>
+        <v>5.8777999999999997E-2</v>
       </c>
       <c r="P143">
-        <v>8.9289999999999994E-3</v>
+        <v>6.3090000000000004E-3</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E144">
-        <v>-8.1390000000000004E-3</v>
+        <v>-5.9979999999999999E-3</v>
       </c>
       <c r="F144">
-        <v>1.3708E-2</v>
+        <v>1.0673E-2</v>
       </c>
       <c r="G144">
-        <v>4.7580000000000001E-3</v>
+        <v>2.428E-3</v>
       </c>
       <c r="H144">
-        <v>-3.6999999999999999E-4</v>
+        <v>-2.4000000000000001E-4</v>
       </c>
       <c r="I144">
-        <v>6.2399999999999999E-4</v>
+        <v>4.28E-4</v>
       </c>
       <c r="J144">
-        <v>2.1699999999999999E-4</v>
+        <v>9.7E-5</v>
       </c>
       <c r="K144">
-        <v>-1.83E-2</v>
+        <v>-1.5514E-2</v>
       </c>
       <c r="L144">
-        <v>-1.1112E-2</v>
+        <v>-9.8580000000000004E-3</v>
       </c>
       <c r="M144">
-        <v>-7.927E-3</v>
+        <v>-7.6229999999999996E-3</v>
       </c>
       <c r="N144">
-        <v>2.8600000000000001E-3</v>
+        <v>4.5770000000000003E-3</v>
       </c>
       <c r="O144">
-        <v>3.7858000000000003E-2</v>
+        <v>2.7498000000000002E-2</v>
       </c>
       <c r="P144">
-        <v>1.3252E-2</v>
+        <v>7.0429999999999998E-3</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E145">
-        <v>1.5526999999999999E-2</v>
+        <v>8.8819999999999993E-3</v>
       </c>
       <c r="F145">
-        <v>2.2053E-2</v>
+        <v>1.7677999999999999E-2</v>
       </c>
       <c r="G145">
-        <v>-3.7950000000000002E-3</v>
+        <v>-1.1590000000000001E-3</v>
       </c>
       <c r="H145">
-        <v>8.0099999999999995E-4</v>
+        <v>3.68E-4</v>
       </c>
       <c r="I145">
-        <v>1.1379999999999999E-3</v>
+        <v>7.3200000000000001E-4</v>
       </c>
       <c r="J145">
-        <v>-1.95E-4</v>
+        <v>-4.8000000000000001E-5</v>
       </c>
       <c r="K145">
-        <v>-3.5179999999999999E-3</v>
+        <v>-2.4269999999999999E-3</v>
       </c>
       <c r="L145">
-        <v>-6.5900000000000004E-3</v>
+        <v>-5.7600000000000001E-4</v>
       </c>
       <c r="M145">
-        <v>-6.8539999999999998E-3</v>
+        <v>-5.4070000000000003E-3</v>
       </c>
       <c r="N145">
-        <v>3.6850000000000001E-2</v>
+        <v>2.0174000000000001E-2</v>
       </c>
       <c r="O145">
-        <v>4.6151999999999999E-2</v>
+        <v>3.4169999999999999E-2</v>
       </c>
       <c r="P145">
-        <v>1.6699999999999999E-4</v>
+        <v>1.3090000000000001E-3</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="1"/>
+      <c r="C146" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E146">
-        <v>2.7920000000000002E-3</v>
+        <v>-4.1710000000000002E-3</v>
       </c>
       <c r="F146">
-        <v>8.2059999999999998E-3</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G146">
-        <v>-3.405E-3</v>
+        <v>-4.0769999999999999E-3</v>
       </c>
       <c r="H146">
-        <v>4.8999999999999998E-5</v>
+        <v>-6.7999999999999999E-5</v>
       </c>
       <c r="I146">
-        <v>1.4200000000000001E-4</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="J146">
-        <v>-5.8999999999999998E-5</v>
+        <v>-6.7000000000000002E-5</v>
       </c>
       <c r="K146">
-        <v>-8.8690000000000001E-3</v>
+        <v>-2.4539999999999999E-2</v>
       </c>
       <c r="L146">
-        <v>-3.3379999999999998E-3</v>
+        <v>-3.212E-3</v>
       </c>
       <c r="M146">
-        <v>-2.4163E-2</v>
+        <v>-2.6953999999999999E-2</v>
       </c>
       <c r="N146">
-        <v>2.2811999999999999E-2</v>
+        <v>3.261E-3</v>
       </c>
       <c r="O146">
-        <v>4.8364999999999998E-2</v>
+        <v>1.5962E-2</v>
       </c>
       <c r="P146">
-        <v>2.189E-3</v>
+        <v>2.0820000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D147" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E147">
-        <v>-1.5976000000000001E-2</v>
+        <v>-1.477E-2</v>
       </c>
       <c r="F147">
-        <v>4.1097000000000002E-2</v>
+        <v>3.7113E-2</v>
       </c>
       <c r="G147">
-        <v>2.7009999999999998E-3</v>
+        <v>3.715E-3</v>
       </c>
       <c r="H147">
-        <v>-3.2600000000000001E-4</v>
+        <v>-2.52E-4</v>
       </c>
       <c r="I147">
-        <v>8.3799999999999999E-4</v>
+        <v>6.3400000000000001E-4</v>
       </c>
       <c r="J147">
-        <v>5.5000000000000002E-5</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="K147">
-        <v>-3.7817999999999997E-2</v>
+        <v>-2.4929E-2</v>
       </c>
       <c r="L147">
-        <v>1.4239999999999999E-3</v>
+        <v>-9.2100000000000005E-4</v>
       </c>
       <c r="M147">
-        <v>-6.2129999999999998E-3</v>
+        <v>-6.9750000000000003E-3</v>
       </c>
       <c r="N147">
-        <v>2.3310000000000002E-3</v>
+        <v>2.0950000000000001E-3</v>
       </c>
       <c r="O147">
-        <v>5.8777999999999997E-2</v>
+        <v>6.1071E-2</v>
       </c>
       <c r="P147">
-        <v>6.3090000000000004E-3</v>
+        <v>1.0763E-2</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="1"/>
+      <c r="C148" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D148" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148">
-        <v>-5.9979999999999999E-3</v>
+        <v>-2.5019999999999999E-3</v>
       </c>
       <c r="F148">
-        <v>1.0673E-2</v>
+        <v>9.9419999999999994E-3</v>
       </c>
       <c r="G148">
-        <v>2.428E-3</v>
+        <v>-5.208E-3</v>
       </c>
       <c r="H148">
-        <v>-2.4000000000000001E-4</v>
+        <v>-3.6000000000000001E-5</v>
       </c>
       <c r="I148">
-        <v>4.28E-4</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="J148">
-        <v>9.7E-5</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="K148">
-        <v>-1.5514E-2</v>
+        <v>-2.3706000000000001E-2</v>
       </c>
       <c r="L148">
-        <v>-9.8580000000000004E-3</v>
+        <v>-2.042E-3</v>
       </c>
       <c r="M148">
-        <v>-7.6229999999999996E-3</v>
+        <v>-3.2797E-2</v>
       </c>
       <c r="N148">
-        <v>4.5770000000000003E-3</v>
+        <v>2.2620999999999999E-2</v>
       </c>
       <c r="O148">
-        <v>2.7498000000000002E-2</v>
+        <v>4.6905000000000002E-2</v>
       </c>
       <c r="P148">
-        <v>7.0429999999999998E-3</v>
+        <v>2.8579999999999999E-3</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E149">
-        <v>8.8819999999999993E-3</v>
+        <v>-1.5308E-2</v>
       </c>
       <c r="F149">
-        <v>1.7677999999999999E-2</v>
+        <v>4.3482E-2</v>
       </c>
       <c r="G149">
-        <v>-1.1590000000000001E-3</v>
+        <v>9.2259999999999998E-3</v>
       </c>
       <c r="H149">
-        <v>3.68E-4</v>
+        <v>-3.01E-4</v>
       </c>
       <c r="I149">
-        <v>7.3200000000000001E-4</v>
+        <v>8.5599999999999999E-4</v>
       </c>
       <c r="J149">
-        <v>-4.8000000000000001E-5</v>
+        <v>1.8200000000000001E-4</v>
       </c>
       <c r="K149">
-        <v>-2.4269999999999999E-3</v>
+        <v>-3.5843E-2</v>
       </c>
       <c r="L149">
-        <v>-5.7600000000000001E-4</v>
+        <v>9.3999999999999994E-5</v>
       </c>
       <c r="M149">
-        <v>-5.4070000000000003E-3</v>
+        <v>-9.3300000000000002E-4</v>
       </c>
       <c r="N149">
-        <v>2.0174000000000001E-2</v>
+        <v>4.9490000000000003E-3</v>
       </c>
       <c r="O149">
-        <v>3.4169999999999999E-2</v>
+        <v>7.4788999999999994E-2</v>
       </c>
       <c r="P149">
-        <v>1.3090000000000001E-3</v>
+        <v>1.7278999999999999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C150" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D150" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E150">
-        <v>-4.1710000000000002E-3</v>
+        <v>8.1290000000000008E-3</v>
       </c>
       <c r="F150">
-        <v>4.2929999999999999E-3</v>
+        <v>1.8234E-2</v>
       </c>
       <c r="G150">
-        <v>-4.0769999999999999E-3</v>
+        <v>-1.3860000000000001E-3</v>
       </c>
       <c r="H150">
-        <v>-6.7999999999999999E-5</v>
+        <v>3.2299999999999999E-4</v>
       </c>
       <c r="I150">
-        <v>6.9999999999999994E-5</v>
+        <v>7.2400000000000003E-4</v>
       </c>
       <c r="J150">
-        <v>-6.7000000000000002E-5</v>
+        <v>-5.5000000000000002E-5</v>
       </c>
       <c r="K150">
-        <v>-2.4539999999999999E-2</v>
+        <v>-3.0400000000000002E-4</v>
       </c>
       <c r="L150">
-        <v>-3.212E-3</v>
+        <v>1.0740000000000001E-3</v>
       </c>
       <c r="M150">
-        <v>-2.6953999999999999E-2</v>
+        <v>-4.744E-3</v>
       </c>
       <c r="N150">
-        <v>3.261E-3</v>
+        <v>2.0434000000000001E-2</v>
       </c>
       <c r="O150">
-        <v>1.5962E-2</v>
+        <v>3.4852000000000001E-2</v>
       </c>
       <c r="P150">
-        <v>2.0820000000000001E-3</v>
+        <v>6.0499999999999996E-4</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E151">
-        <v>-1.477E-2</v>
+        <v>1.7420000000000001E-3</v>
       </c>
       <c r="F151">
-        <v>3.7113E-2</v>
+        <v>1.0141000000000001E-2</v>
       </c>
       <c r="G151">
-        <v>3.715E-3</v>
+        <v>-5.4939999999999998E-3</v>
       </c>
       <c r="H151">
-        <v>-2.52E-4</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="I151">
-        <v>6.3400000000000001E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="J151">
-        <v>6.3999999999999997E-5</v>
+        <v>-1.74E-4</v>
       </c>
       <c r="K151">
-        <v>-2.4929E-2</v>
+        <v>-9.0860000000000003E-3</v>
       </c>
       <c r="L151">
-        <v>-9.2100000000000005E-4</v>
+        <v>-1.792E-3</v>
       </c>
       <c r="M151">
-        <v>-6.9750000000000003E-3</v>
+        <v>-1.6500000000000001E-2</v>
       </c>
       <c r="N151">
-        <v>2.0950000000000001E-3</v>
+        <v>1.7027E-2</v>
       </c>
       <c r="O151">
-        <v>6.1071E-2</v>
+        <v>3.9837999999999998E-2</v>
       </c>
       <c r="P151">
-        <v>1.0763E-2</v>
+        <v>4.7800000000000002E-4</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E152">
-        <v>-2.5019999999999999E-3</v>
+        <v>2.0864000000000001E-2</v>
       </c>
       <c r="F152">
-        <v>9.9419999999999994E-3</v>
+        <v>3.2098000000000002E-2</v>
       </c>
       <c r="G152">
-        <v>-5.208E-3</v>
+        <v>3.1319999999999998E-3</v>
       </c>
       <c r="H152">
-        <v>-3.6000000000000001E-5</v>
+        <v>6.5899999999999997E-4</v>
       </c>
       <c r="I152">
-        <v>1.4300000000000001E-4</v>
+        <v>1.0139999999999999E-3</v>
       </c>
       <c r="J152">
-        <v>-7.4999999999999993E-5</v>
+        <v>9.8999999999999994E-5</v>
       </c>
       <c r="K152">
-        <v>-2.3706000000000001E-2</v>
+        <v>-5.3700000000000004E-4</v>
       </c>
       <c r="L152">
-        <v>-2.042E-3</v>
+        <v>6.1700000000000004E-4</v>
       </c>
       <c r="M152">
-        <v>-3.2797E-2</v>
+        <v>-2.5999999999999998E-4</v>
       </c>
       <c r="N152">
-        <v>2.2620999999999999E-2</v>
+        <v>3.0308000000000002E-2</v>
       </c>
       <c r="O152">
-        <v>4.6905000000000002E-2</v>
+        <v>4.7687E-2</v>
       </c>
       <c r="P152">
-        <v>2.8579999999999999E-3</v>
+        <v>6.1479999999999998E-3</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D153" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E153">
-        <v>-1.5308E-2</v>
+        <v>-1.1771999999999999E-2</v>
       </c>
       <c r="F153">
-        <v>4.3482E-2</v>
+        <v>5.9680000000000002E-3</v>
       </c>
       <c r="G153">
-        <v>9.2259999999999998E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H153">
-        <v>-3.01E-4</v>
+        <v>-4.9399999999999997E-4</v>
       </c>
       <c r="I153">
-        <v>8.5599999999999999E-4</v>
+        <v>2.5099999999999998E-4</v>
       </c>
       <c r="J153">
-        <v>1.8200000000000001E-4</v>
+        <v>1.6799999999999999E-4</v>
       </c>
       <c r="K153">
-        <v>-3.5843E-2</v>
+        <v>-2.5520000000000001E-2</v>
       </c>
       <c r="L153">
-        <v>9.3999999999999994E-5</v>
+        <v>-2.2390000000000001E-3</v>
       </c>
       <c r="M153">
-        <v>-9.3300000000000002E-4</v>
+        <v>-6.8479999999999999E-3</v>
       </c>
       <c r="N153">
-        <v>4.9490000000000003E-3</v>
+        <v>2.7049999999999999E-3</v>
       </c>
       <c r="O153">
-        <v>7.4788999999999994E-2</v>
+        <v>1.9605000000000001E-2</v>
       </c>
       <c r="P153">
-        <v>1.7278999999999999E-2</v>
+        <v>1.0623E-2</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E154">
-        <v>-1.6181000000000001E-2</v>
+        <v>1.359E-3</v>
       </c>
       <c r="F154">
-        <v>4.6228999999999999E-2</v>
+        <v>7.8200000000000006E-3</v>
       </c>
       <c r="G154">
-        <v>9.776E-3</v>
+        <v>-3.6909999999999998E-3</v>
       </c>
       <c r="H154">
-        <v>-2.99E-4</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="I154">
-        <v>8.5499999999999997E-4</v>
+        <v>1.18E-4</v>
       </c>
       <c r="J154">
-        <v>1.8100000000000001E-4</v>
+        <v>-5.5999999999999999E-5</v>
       </c>
       <c r="K154">
-        <v>-3.5843E-2</v>
+        <v>-7.5170000000000002E-3</v>
       </c>
       <c r="L154">
-        <v>2.3869999999999998E-3</v>
+        <v>4.0900000000000002E-4</v>
       </c>
       <c r="M154">
-        <v>-9.3300000000000002E-4</v>
+        <v>-2.1340999999999999E-2</v>
       </c>
       <c r="N154">
-        <v>4.9490000000000003E-3</v>
+        <v>1.2533000000000001E-2</v>
       </c>
       <c r="O154">
-        <v>7.4788999999999994E-2</v>
+        <v>3.0504E-2</v>
       </c>
       <c r="P154">
-        <v>1.7278999999999999E-2</v>
+        <v>4.3199999999999998E-4</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155">
-        <v>8.1290000000000008E-3</v>
+        <v>9.0499999999999999E-4</v>
       </c>
       <c r="F155">
-        <v>1.8234E-2</v>
+        <v>4.3307999999999999E-2</v>
       </c>
       <c r="G155">
-        <v>-1.3860000000000001E-3</v>
+        <v>2.6559999999999999E-3</v>
       </c>
       <c r="H155">
-        <v>3.2299999999999999E-4</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="I155">
-        <v>7.2400000000000003E-4</v>
+        <v>8.9599999999999999E-4</v>
       </c>
       <c r="J155">
-        <v>-5.5000000000000002E-5</v>
+        <v>5.5000000000000002E-5</v>
       </c>
       <c r="K155">
-        <v>-3.0400000000000002E-4</v>
+        <v>-1.7534999999999999E-2</v>
       </c>
       <c r="L155">
-        <v>1.0740000000000001E-3</v>
+        <v>-1.0610000000000001E-3</v>
       </c>
       <c r="M155">
-        <v>-4.744E-3</v>
+        <v>-3.1459999999999999E-3</v>
       </c>
       <c r="N155">
-        <v>2.0434000000000001E-2</v>
+        <v>1.5466000000000001E-2</v>
       </c>
       <c r="O155">
-        <v>3.4852000000000001E-2</v>
+        <v>6.9503999999999996E-2</v>
       </c>
       <c r="P155">
-        <v>6.0499999999999996E-4</v>
+        <v>9.6959999999999998E-3</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C156" s="1"/>
+      <c r="C156" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E156">
-        <v>1.7420000000000001E-3</v>
+        <v>-3.833E-3</v>
       </c>
       <c r="F156">
-        <v>1.0141000000000001E-2</v>
+        <v>1.2625000000000001E-2</v>
       </c>
       <c r="G156">
-        <v>-5.4939999999999998E-3</v>
+        <v>2.0010000000000002E-3</v>
       </c>
       <c r="H156">
-        <v>5.5000000000000002E-5</v>
+        <v>-1.76E-4</v>
       </c>
       <c r="I156">
-        <v>3.2000000000000003E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="J156">
-        <v>-1.74E-4</v>
+        <v>9.2E-5</v>
       </c>
       <c r="K156">
-        <v>-9.0860000000000003E-3</v>
+        <v>-1.0381E-2</v>
       </c>
       <c r="L156">
-        <v>-1.792E-3</v>
+        <v>-1.5786000000000001E-2</v>
       </c>
       <c r="M156">
-        <v>-1.6500000000000001E-2</v>
+        <v>-8.9200000000000008E-3</v>
       </c>
       <c r="N156">
-        <v>1.7027E-2</v>
+        <v>4.9480000000000001E-3</v>
       </c>
       <c r="O156">
-        <v>3.9837999999999998E-2</v>
+        <v>3.3430000000000001E-2</v>
       </c>
       <c r="P156">
-        <v>4.7800000000000002E-4</v>
+        <v>8.5229999999999993E-3</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C157" s="1"/>
+      <c r="C157" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D157" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E157">
-        <v>2.0864000000000001E-2</v>
+        <v>1.6636999999999999E-2</v>
       </c>
       <c r="F157">
-        <v>3.2098000000000002E-2</v>
+        <v>3.6658000000000003E-2</v>
       </c>
       <c r="G157">
-        <v>3.1319999999999998E-3</v>
+        <v>-4.8000000000000001E-4</v>
       </c>
       <c r="H157">
-        <v>6.5899999999999997E-4</v>
+        <v>6.6600000000000003E-4</v>
       </c>
       <c r="I157">
-        <v>1.0139999999999999E-3</v>
+        <v>1.467E-3</v>
       </c>
       <c r="J157">
-        <v>9.8999999999999994E-5</v>
+        <v>-1.9000000000000001E-5</v>
       </c>
       <c r="K157">
-        <v>-5.3700000000000004E-4</v>
+        <v>-5.4900000000000001E-3</v>
       </c>
       <c r="L157">
-        <v>6.1700000000000004E-4</v>
+        <v>-6.5409999999999999E-3</v>
       </c>
       <c r="M157">
-        <v>-2.5999999999999998E-4</v>
+        <v>-9.9310000000000006E-3</v>
       </c>
       <c r="N157">
-        <v>3.0308000000000002E-2</v>
+        <v>3.3509999999999998E-2</v>
       </c>
       <c r="O157">
-        <v>4.7687E-2</v>
+        <v>6.8796999999999997E-2</v>
       </c>
       <c r="P157">
-        <v>6.1479999999999998E-3</v>
+        <v>5.8900000000000003E-3</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C158" s="1"/>
+      <c r="C158" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E158">
-        <v>-1.1771999999999999E-2</v>
+        <v>-3.519E-3</v>
       </c>
       <c r="F158">
-        <v>5.9680000000000002E-3</v>
+        <v>1.4668E-2</v>
       </c>
       <c r="G158">
-        <v>4.0000000000000001E-3</v>
+        <v>4.6389999999999999E-3</v>
       </c>
       <c r="H158">
-        <v>-4.9399999999999997E-4</v>
+        <v>-2.13E-4</v>
       </c>
       <c r="I158">
-        <v>2.5099999999999998E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
       <c r="J158">
-        <v>1.6799999999999999E-4</v>
+        <v>2.8200000000000002E-4</v>
       </c>
       <c r="K158">
-        <v>-2.5520000000000001E-2</v>
+        <v>-6.9979999999999999E-3</v>
       </c>
       <c r="L158">
-        <v>-2.2390000000000001E-3</v>
+        <v>-3.869E-3</v>
       </c>
       <c r="M158">
-        <v>-6.8479999999999999E-3</v>
+        <v>-5.3699999999999998E-3</v>
       </c>
       <c r="N158">
-        <v>2.7049999999999999E-3</v>
+        <v>3.2750000000000001E-3</v>
       </c>
       <c r="O158">
-        <v>1.9605000000000001E-2</v>
+        <v>2.7559E-2</v>
       </c>
       <c r="P158">
-        <v>1.0623E-2</v>
+        <v>1.018E-2</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="1"/>
+      <c r="C159" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D159" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E159">
-        <v>1.359E-3</v>
+        <v>-9.9950000000000004E-3</v>
       </c>
       <c r="F159">
-        <v>7.8200000000000006E-3</v>
+        <v>3.2789999999999998E-3</v>
       </c>
       <c r="G159">
-        <v>-3.6909999999999998E-3</v>
+        <v>2.1540000000000001E-3</v>
       </c>
       <c r="H159">
-        <v>2.0999999999999999E-5</v>
+        <v>-3.4000000000000002E-4</v>
       </c>
       <c r="I159">
-        <v>1.18E-4</v>
+        <v>1.12E-4</v>
       </c>
       <c r="J159">
-        <v>-5.5999999999999999E-5</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="K159">
-        <v>-7.5170000000000002E-3</v>
+        <v>-2.3616999999999999E-2</v>
       </c>
       <c r="L159">
-        <v>4.0900000000000002E-4</v>
+        <v>-1.7486999999999999E-2</v>
       </c>
       <c r="M159">
-        <v>-2.1340999999999999E-2</v>
+        <v>-1.4943E-2</v>
       </c>
       <c r="N159">
-        <v>1.2533000000000001E-2</v>
+        <v>6.1749999999999999E-3</v>
       </c>
       <c r="O159">
-        <v>3.0504E-2</v>
+        <v>1.1946E-2</v>
       </c>
       <c r="P159">
-        <v>4.3199999999999998E-4</v>
+        <v>7.1900000000000002E-3</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D160" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E160">
-        <v>9.0499999999999999E-4</v>
+        <v>1.1379999999999999E-3</v>
       </c>
       <c r="F160">
-        <v>4.3307999999999999E-2</v>
+        <v>1.4054000000000001E-2</v>
       </c>
       <c r="G160">
-        <v>2.6559999999999999E-3</v>
+        <v>-3.6970000000000002E-3</v>
       </c>
       <c r="H160">
-        <v>1.9000000000000001E-5</v>
+        <v>5.1999999999999997E-5</v>
       </c>
       <c r="I160">
-        <v>8.9599999999999999E-4</v>
+        <v>6.4499999999999996E-4</v>
       </c>
       <c r="J160">
-        <v>5.5000000000000002E-5</v>
+        <v>-1.7000000000000001E-4</v>
       </c>
       <c r="K160">
-        <v>-1.7534999999999999E-2</v>
+        <v>-1.0302E-2</v>
       </c>
       <c r="L160">
-        <v>-1.0610000000000001E-3</v>
+        <v>-8.3949999999999997E-3</v>
       </c>
       <c r="M160">
-        <v>-3.1459999999999999E-3</v>
+        <v>-9.6849999999999992E-3</v>
       </c>
       <c r="N160">
-        <v>1.5466000000000001E-2</v>
+        <v>1.6298E-2</v>
       </c>
       <c r="O160">
-        <v>6.9503999999999996E-2</v>
+        <v>2.945E-2</v>
       </c>
       <c r="P160">
-        <v>9.6959999999999998E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E161">
-        <v>-3.833E-3</v>
+        <v>-6.202E-3</v>
       </c>
       <c r="F161">
-        <v>1.2625000000000001E-2</v>
+        <v>1.2347E-2</v>
       </c>
       <c r="G161">
-        <v>2.0010000000000002E-3</v>
+        <v>1.877E-3</v>
       </c>
       <c r="H161">
-        <v>-1.76E-4</v>
+        <v>-3.2299999999999999E-4</v>
       </c>
       <c r="I161">
-        <v>5.8E-4</v>
+        <v>6.4300000000000002E-4</v>
       </c>
       <c r="J161">
-        <v>9.2E-5</v>
+        <v>9.7999999999999997E-5</v>
       </c>
       <c r="K161">
-        <v>-1.0381E-2</v>
+        <v>-1.256E-2</v>
       </c>
       <c r="L161">
-        <v>-1.5786000000000001E-2</v>
+        <v>-1.4182999999999999E-2</v>
       </c>
       <c r="M161">
-        <v>-8.9200000000000008E-3</v>
+        <v>-7.2870000000000001E-3</v>
       </c>
       <c r="N161">
-        <v>4.9480000000000001E-3</v>
+        <v>2.23E-4</v>
       </c>
       <c r="O161">
-        <v>3.3430000000000001E-2</v>
+        <v>3.1234999999999999E-2</v>
       </c>
       <c r="P161">
-        <v>8.5229999999999993E-3</v>
+        <v>5.9069999999999999E-3</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E162">
-        <v>1.6636999999999999E-2</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="F162">
-        <v>3.6658000000000003E-2</v>
+        <v>1.4442E-2</v>
       </c>
       <c r="G162">
-        <v>-4.8000000000000001E-4</v>
+        <v>-1.866E-3</v>
       </c>
       <c r="H162">
-        <v>6.6600000000000003E-4</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="I162">
-        <v>1.467E-3</v>
+        <v>8.0999999999999996E-4</v>
       </c>
       <c r="J162">
-        <v>-1.9000000000000001E-5</v>
+        <v>-1.05E-4</v>
       </c>
       <c r="K162">
-        <v>-5.4900000000000001E-3</v>
+        <v>-4.973E-3</v>
       </c>
       <c r="L162">
-        <v>-6.5409999999999999E-3</v>
+        <v>-5.2059999999999997E-3</v>
       </c>
       <c r="M162">
-        <v>-9.9310000000000006E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="N162">
-        <v>3.3509999999999998E-2</v>
+        <v>1.1547E-2</v>
       </c>
       <c r="O162">
-        <v>6.8796999999999997E-2</v>
+        <v>2.8233999999999999E-2</v>
       </c>
       <c r="P162">
-        <v>5.8900000000000003E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163">
-        <v>-3.519E-3</v>
-      </c>
-      <c r="F163">
-        <v>1.4668E-2</v>
-      </c>
-      <c r="G163">
-        <v>4.6389999999999999E-3</v>
-      </c>
-      <c r="H163">
-        <v>-2.13E-4</v>
-      </c>
-      <c r="I163">
-        <v>8.8999999999999995E-4</v>
-      </c>
-      <c r="J163">
-        <v>2.8200000000000002E-4</v>
-      </c>
-      <c r="K163">
-        <v>-6.9979999999999999E-3</v>
-      </c>
-      <c r="L163">
-        <v>-3.869E-3</v>
-      </c>
-      <c r="M163">
-        <v>-5.3699999999999998E-3</v>
-      </c>
-      <c r="N163">
-        <v>3.2750000000000001E-3</v>
-      </c>
-      <c r="O163">
-        <v>2.7559E-2</v>
-      </c>
-      <c r="P163">
-        <v>1.018E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164">
-        <v>-9.9950000000000004E-3</v>
-      </c>
-      <c r="F164">
-        <v>3.2789999999999998E-3</v>
-      </c>
-      <c r="G164">
-        <v>2.1540000000000001E-3</v>
-      </c>
-      <c r="H164">
-        <v>-3.4000000000000002E-4</v>
-      </c>
-      <c r="I164">
-        <v>1.12E-4</v>
-      </c>
-      <c r="J164">
-        <v>7.2999999999999999E-5</v>
-      </c>
-      <c r="K164">
-        <v>-2.3616999999999999E-2</v>
-      </c>
-      <c r="L164">
-        <v>-1.7486999999999999E-2</v>
-      </c>
-      <c r="M164">
-        <v>-1.4943E-2</v>
-      </c>
-      <c r="N164">
-        <v>6.1749999999999999E-3</v>
-      </c>
-      <c r="O164">
-        <v>1.1946E-2</v>
-      </c>
-      <c r="P164">
-        <v>7.1900000000000002E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165">
-        <v>-4.2579999999999996E-3</v>
-      </c>
-      <c r="F165">
-        <v>9.665E-3</v>
-      </c>
-      <c r="G165">
-        <v>3.0600000000000001E-4</v>
-      </c>
-      <c r="H165">
-        <v>-1.6100000000000001E-4</v>
-      </c>
-      <c r="I165">
-        <v>3.6699999999999998E-4</v>
-      </c>
-      <c r="J165">
-        <v>1.2E-5</v>
-      </c>
-      <c r="K165">
-        <v>-9.2639999999999997E-3</v>
-      </c>
-      <c r="L165">
-        <v>-6.3850000000000001E-3</v>
-      </c>
-      <c r="M165">
-        <v>-4.3889999999999997E-3</v>
-      </c>
-      <c r="N165">
-        <v>2.1100000000000001E-4</v>
-      </c>
-      <c r="O165">
-        <v>2.4344999999999999E-2</v>
-      </c>
-      <c r="P165">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166">
-        <v>1.1379999999999999E-3</v>
-      </c>
-      <c r="F166">
-        <v>1.4054000000000001E-2</v>
-      </c>
-      <c r="G166">
-        <v>-3.6970000000000002E-3</v>
-      </c>
-      <c r="H166">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="I166">
-        <v>6.4499999999999996E-4</v>
-      </c>
-      <c r="J166">
-        <v>-1.7000000000000001E-4</v>
-      </c>
-      <c r="K166">
-        <v>-1.0302E-2</v>
-      </c>
-      <c r="L166">
-        <v>-8.3949999999999997E-3</v>
-      </c>
-      <c r="M166">
-        <v>-9.6849999999999992E-3</v>
-      </c>
-      <c r="N166">
-        <v>1.6298E-2</v>
-      </c>
-      <c r="O166">
-        <v>2.945E-2</v>
-      </c>
-      <c r="P166">
-        <v>7.5000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167">
-        <v>-6.202E-3</v>
-      </c>
-      <c r="F167">
-        <v>1.2347E-2</v>
-      </c>
-      <c r="G167">
-        <v>1.877E-3</v>
-      </c>
-      <c r="H167">
-        <v>-3.2299999999999999E-4</v>
-      </c>
-      <c r="I167">
-        <v>6.4300000000000002E-4</v>
-      </c>
-      <c r="J167">
-        <v>9.7999999999999997E-5</v>
-      </c>
-      <c r="K167">
-        <v>-1.256E-2</v>
-      </c>
-      <c r="L167">
-        <v>-1.4182999999999999E-2</v>
-      </c>
-      <c r="M167">
-        <v>-7.2870000000000001E-3</v>
-      </c>
-      <c r="N167">
-        <v>2.23E-4</v>
-      </c>
-      <c r="O167">
-        <v>3.1234999999999999E-2</v>
-      </c>
-      <c r="P167">
-        <v>5.9069999999999999E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168">
-        <v>3.8700000000000002E-3</v>
-      </c>
-      <c r="F168">
-        <v>1.4442E-2</v>
-      </c>
-      <c r="G168">
-        <v>-1.866E-3</v>
-      </c>
-      <c r="H168">
-        <v>2.1699999999999999E-4</v>
-      </c>
-      <c r="I168">
-        <v>8.0999999999999996E-4</v>
-      </c>
-      <c r="J168">
-        <v>-1.05E-4</v>
-      </c>
-      <c r="K168">
-        <v>-4.973E-3</v>
-      </c>
-      <c r="L168">
-        <v>-5.2059999999999997E-3</v>
-      </c>
-      <c r="M168">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="N168">
-        <v>1.1547E-2</v>
-      </c>
-      <c r="O168">
-        <v>2.8233999999999999E-2</v>
-      </c>
-      <c r="P168">
         <v>1.7570000000000001E-3</v>
       </c>
     </row>
